--- a/adresso_False.xlsx
+++ b/adresso_False.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>speaker</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>adrsdt48</t>
-  </si>
-  <si>
-    <t>[415.82278481]</t>
   </si>
 </sst>
 </file>
@@ -624,13 +621,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4.283822857366391E+42</v>
+        <v>722.1498309364724</v>
       </c>
       <c r="D2">
-        <v>729.5148851181137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E2">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -641,13 +638,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4.283822857366377E+42</v>
+        <v>142.5481928879551</v>
       </c>
       <c r="D3">
         <v>161.9793021760524</v>
       </c>
-      <c r="E3" t="s">
-        <v>74</v>
+      <c r="E3">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -658,13 +655,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>4.283822857366332E+42</v>
+        <v>244.2543865407443</v>
       </c>
       <c r="D4">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E4">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -675,13 +672,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>4.283822857366401E+42</v>
+        <v>272.4161243439281</v>
       </c>
       <c r="D5">
-        <v>-260.4719964048805</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
+        <v>452.1478708983092</v>
+      </c>
+      <c r="E5">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -692,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>4.283822857366404E+42</v>
+        <v>276.0432286862947</v>
       </c>
       <c r="D6">
-        <v>-70.58227128516809</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
+        <v>-85.82221712142113</v>
+      </c>
+      <c r="E6">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -709,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>4.283822857366365E+42</v>
+        <v>553.0095763960891</v>
       </c>
       <c r="D7">
-        <v>4.093463312471424</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E7">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -726,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>4.28382285736633E+42</v>
+        <v>681.4491648769002</v>
       </c>
       <c r="D8">
-        <v>324.1323258737842</v>
-      </c>
-      <c r="E8" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E8">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -743,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>4.28382285736636E+42</v>
+        <v>200.5936782634124</v>
       </c>
       <c r="D9">
-        <v>516.1556434105718</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
+        <v>-55.64712436564023</v>
+      </c>
+      <c r="E9">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -760,13 +757,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>4.283822857366366E+42</v>
+        <v>356.5068579634259</v>
       </c>
       <c r="D10">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E10">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -777,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>4.28382285736635E+42</v>
+        <v>358.2363605223612</v>
       </c>
       <c r="D11">
-        <v>-1.240517730217128</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E11">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -794,13 +791,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>4.283822857366396E+42</v>
+        <v>674.4435819675817</v>
       </c>
       <c r="D12">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
+        <v>260.1245533615216</v>
+      </c>
+      <c r="E12">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -811,13 +808,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>4.283822857366319E+42</v>
+        <v>401.9822851235797</v>
       </c>
       <c r="D13">
-        <v>124.9970336134118</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
+        <v>78.76919791011103</v>
+      </c>
+      <c r="E13">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -828,13 +825,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>4.283822857366306E+42</v>
+        <v>493.3737461433001</v>
       </c>
       <c r="D14">
-        <v>270.7925154468987</v>
-      </c>
-      <c r="E14" t="s">
-        <v>74</v>
+        <v>590.8313780082116</v>
+      </c>
+      <c r="E14">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -845,13 +842,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>4.283822857366343E+42</v>
+        <v>342.4739897266419</v>
       </c>
       <c r="D15">
-        <v>782.8546955449992</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E15">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -862,13 +859,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>4.283822857366399E+42</v>
+        <v>112.739901301428</v>
       </c>
       <c r="D16">
-        <v>516.1556434105718</v>
-      </c>
-      <c r="E16" t="s">
-        <v>74</v>
+        <v>190.7827998065706</v>
+      </c>
+      <c r="E16">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -879,13 +876,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>4.283822857366322E+42</v>
+        <v>535.6632852395014</v>
       </c>
       <c r="D17">
-        <v>516.1556434105718</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E17">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -896,13 +893,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>4.283822857366314E+42</v>
+        <v>958.4517679564601</v>
       </c>
       <c r="D18">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E18" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E18">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -913,13 +910,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>4.283822857366299E+42</v>
+        <v>532.9057085233682</v>
       </c>
       <c r="D19">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E19" t="s">
-        <v>74</v>
+        <v>-55.64712436564023</v>
+      </c>
+      <c r="E19">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -930,13 +927,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>4.283822857366415E+42</v>
+        <v>-25.63087186719468</v>
       </c>
       <c r="D20">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E20">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -947,13 +944,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>4.283822857366363E+42</v>
+        <v>253.0406195253309</v>
       </c>
       <c r="D21">
-        <v>825.5265438865074</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
+        <v>147.3489541732495</v>
+      </c>
+      <c r="E21">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -964,13 +961,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>4.28382285736636E+42</v>
+        <v>385.5881992633018</v>
       </c>
       <c r="D22">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E22">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -981,13 +978,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>4.283822857366365E+42</v>
+        <v>242.6320957011239</v>
       </c>
       <c r="D23">
-        <v>270.7925154468987</v>
-      </c>
-      <c r="E23" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E23">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -998,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>4.283822857366365E+42</v>
+        <v>421.3514838004826</v>
       </c>
       <c r="D24">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
+        <v>190.7827998065706</v>
+      </c>
+      <c r="E24">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1015,13 +1012,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>4.283822857366303E+42</v>
+        <v>440.9077591909918</v>
       </c>
       <c r="D25">
-        <v>638.8372073924083</v>
-      </c>
-      <c r="E25" t="s">
-        <v>74</v>
+        <v>452.1478708983092</v>
+      </c>
+      <c r="E25">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1032,13 +1029,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>4.283822857366355E+42</v>
+        <v>54.40623282987583</v>
       </c>
       <c r="D26">
-        <v>638.8372073924083</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E26">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1049,13 +1046,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>4.283822857366405E+42</v>
+        <v>391.2398625291724</v>
       </c>
       <c r="D27">
         <v>161.9793021760524</v>
       </c>
-      <c r="E27" t="s">
-        <v>74</v>
+      <c r="E27">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1066,13 +1063,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>4.283822857366334E+42</v>
+        <v>514.6403134960207</v>
       </c>
       <c r="D28">
-        <v>324.1323258737842</v>
-      </c>
-      <c r="E28" t="s">
-        <v>74</v>
+        <v>622.8352642643428</v>
+      </c>
+      <c r="E28">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1083,13 +1080,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>4.283822857366292E+42</v>
+        <v>286.1215476732526</v>
       </c>
       <c r="D29">
-        <v>853.2632453084879</v>
-      </c>
-      <c r="E29" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E29">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1100,13 +1097,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>4.28382285736627E+42</v>
+        <v>620.4575740208892</v>
       </c>
       <c r="D30">
-        <v>782.8546955449992</v>
-      </c>
-      <c r="E30" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E30">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1117,13 +1114,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>4.283822857366391E+42</v>
+        <v>610.494838588764</v>
       </c>
       <c r="D31">
-        <v>729.5148851181137</v>
-      </c>
-      <c r="E31" t="s">
-        <v>74</v>
+        <v>101.6291166644905</v>
+      </c>
+      <c r="E31">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1134,13 +1131,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>4.283822857366358E+42</v>
+        <v>514.1425179803657</v>
       </c>
       <c r="D32">
         <v>161.9793021760524</v>
       </c>
-      <c r="E32" t="s">
-        <v>74</v>
+      <c r="E32">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1151,13 +1148,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>4.283822857366344E+42</v>
+        <v>480.8184250989407</v>
       </c>
       <c r="D33">
-        <v>638.8372073924083</v>
-      </c>
-      <c r="E33" t="s">
-        <v>74</v>
+        <v>452.1478708983092</v>
+      </c>
+      <c r="E33">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1168,13 +1165,13 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>4.283822857366384E+42</v>
+        <v>547.9755607596375</v>
       </c>
       <c r="D34">
         <v>161.9793021760524</v>
       </c>
-      <c r="E34" t="s">
-        <v>74</v>
+      <c r="E34">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1185,13 +1182,13 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>4.283822857366338E+42</v>
+        <v>86.8628085580704</v>
       </c>
       <c r="D35">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E35" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E35">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1202,13 +1199,13 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>4.283822857366297E+42</v>
+        <v>10.3594059244733</v>
       </c>
       <c r="D36">
-        <v>324.1323258737842</v>
-      </c>
-      <c r="E36" t="s">
-        <v>74</v>
+        <v>89.43715999548816</v>
+      </c>
+      <c r="E36">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1219,13 +1216,13 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>4.28382285736636E+42</v>
+        <v>523.0471005655552</v>
       </c>
       <c r="D37">
-        <v>124.9970336134118</v>
-      </c>
-      <c r="E37" t="s">
-        <v>74</v>
+        <v>147.3489541732495</v>
+      </c>
+      <c r="E37">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1236,13 +1233,13 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>4.283822857366395E+42</v>
+        <v>665.8559438499892</v>
       </c>
       <c r="D38">
-        <v>729.5148851181137</v>
-      </c>
-      <c r="E38" t="s">
-        <v>74</v>
+        <v>101.6291166644905</v>
+      </c>
+      <c r="E38">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1253,13 +1250,13 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>4.283822857366289E+42</v>
+        <v>772.8278054601456</v>
       </c>
       <c r="D39">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E39" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E39">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1270,13 +1267,13 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>4.28382285736634E+42</v>
+        <v>540.5016850438506</v>
       </c>
       <c r="D40">
         <v>161.9793021760524</v>
       </c>
-      <c r="E40" t="s">
-        <v>74</v>
+      <c r="E40">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1287,13 +1284,13 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>4.283822857366324E+42</v>
+        <v>317.9738764083492</v>
       </c>
       <c r="D41">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E41" t="s">
-        <v>74</v>
+        <v>622.8352642643428</v>
+      </c>
+      <c r="E41">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1304,13 +1301,13 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>4.283822857366358E+42</v>
+        <v>254.8781325961579</v>
       </c>
       <c r="D42">
-        <v>-577.3104703405802</v>
-      </c>
-      <c r="E42" t="s">
-        <v>74</v>
+        <v>-577.31047034058</v>
+      </c>
+      <c r="E42">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1321,13 +1318,13 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>4.283822857366339E+42</v>
+        <v>334.5710547404184</v>
       </c>
       <c r="D43">
-        <v>729.5148851181137</v>
-      </c>
-      <c r="E43" t="s">
-        <v>74</v>
+        <v>590.8313780082116</v>
+      </c>
+      <c r="E43">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1338,13 +1335,13 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>4.283822857366326E+42</v>
+        <v>358.2247670784342</v>
       </c>
       <c r="D44">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E44" t="s">
-        <v>74</v>
+        <v>814.8585818011305</v>
+      </c>
+      <c r="E44">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1355,13 +1352,13 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>4.28382285736639E+42</v>
+        <v>730.9351963846111</v>
       </c>
       <c r="D45">
-        <v>516.1556434105718</v>
-      </c>
-      <c r="E45" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E45">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1372,13 +1369,13 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>4.283822857366328E+42</v>
+        <v>727.8576662517048</v>
       </c>
       <c r="D46">
-        <v>516.1556434105718</v>
-      </c>
-      <c r="E46" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E46">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1389,13 +1386,13 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>4.283822857366259E+42</v>
+        <v>245.2239919385876</v>
       </c>
       <c r="D47">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E47" t="s">
-        <v>74</v>
+        <v>260.1245533615216</v>
+      </c>
+      <c r="E47">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1406,13 +1403,13 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>4.283822857366283E+42</v>
+        <v>622.0367090443561</v>
       </c>
       <c r="D48">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E48" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E48">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1423,13 +1420,13 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>4.283822857366345E+42</v>
+        <v>419.1722349553896</v>
       </c>
       <c r="D49">
-        <v>729.5148851181137</v>
-      </c>
-      <c r="E49" t="s">
-        <v>74</v>
+        <v>101.6291166644905</v>
+      </c>
+      <c r="E49">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1440,13 +1437,13 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>4.283822857366322E+42</v>
+        <v>294.2898683154803</v>
       </c>
       <c r="D50">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E50" t="s">
-        <v>74</v>
+        <v>-85.82221712142113</v>
+      </c>
+      <c r="E50">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1457,13 +1454,13 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>4.283822857366374E+42</v>
+        <v>436.7604452040785</v>
       </c>
       <c r="D51">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E51" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E51">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1474,13 +1471,13 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>4.283822857366374E+42</v>
+        <v>748.7612944455099</v>
       </c>
       <c r="D52">
-        <v>324.1323258737842</v>
-      </c>
-      <c r="E52" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E52">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1491,13 +1488,13 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>4.283822857366352E+42</v>
+        <v>361.1041934676909</v>
       </c>
       <c r="D53">
-        <v>516.1556434105718</v>
-      </c>
-      <c r="E53" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E53">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1508,13 +1505,13 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>4.283822857366361E+42</v>
+        <v>332.2929943465868</v>
       </c>
       <c r="D54">
-        <v>516.1556434105718</v>
-      </c>
-      <c r="E54" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E54">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1525,13 +1522,13 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>4.28382285736635E+42</v>
+        <v>290.9502377421935</v>
       </c>
       <c r="D55">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E55" t="s">
-        <v>74</v>
+        <v>260.1245533615216</v>
+      </c>
+      <c r="E55">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1542,13 +1539,13 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>4.283822857366361E+42</v>
+        <v>361.514660390947</v>
       </c>
       <c r="D56">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E56" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E56">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1559,13 +1556,13 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>4.2838228573664E+42</v>
+        <v>338.6357456622259</v>
       </c>
       <c r="D57">
-        <v>825.5265438865074</v>
-      </c>
-      <c r="E57" t="s">
-        <v>74</v>
+        <v>452.1478708983092</v>
+      </c>
+      <c r="E57">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1576,13 +1573,13 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>4.283822857366418E+42</v>
+        <v>567.4241011830777</v>
       </c>
       <c r="D58">
-        <v>124.9970336134118</v>
-      </c>
-      <c r="E58" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E58">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1593,13 +1590,13 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>4.283822857366384E+42</v>
+        <v>54.44047749947749</v>
       </c>
       <c r="D59">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E59" t="s">
-        <v>74</v>
+        <v>-85.82221712142113</v>
+      </c>
+      <c r="E59">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1610,13 +1607,13 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>4.283822857366348E+42</v>
+        <v>611.9451428370484</v>
       </c>
       <c r="D60">
-        <v>729.5148851181137</v>
-      </c>
-      <c r="E60" t="s">
-        <v>74</v>
+        <v>441.4799088129321</v>
+      </c>
+      <c r="E60">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1627,13 +1624,13 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>4.283822857366285E+42</v>
+        <v>56.89987778462434</v>
       </c>
       <c r="D61">
-        <v>270.7925154468987</v>
-      </c>
-      <c r="E61" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E61">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1644,13 +1641,13 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>4.283822857366344E+42</v>
+        <v>746.0905919177226</v>
       </c>
       <c r="D62">
-        <v>-1.240517730217128</v>
-      </c>
-      <c r="E62" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E62">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1661,13 +1658,13 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>4.283822857366227E+42</v>
+        <v>391.2574484443421</v>
       </c>
       <c r="D63">
-        <v>-70.58227128516809</v>
-      </c>
-      <c r="E63" t="s">
-        <v>74</v>
+        <v>260.1245533615216</v>
+      </c>
+      <c r="E63">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1678,13 +1675,13 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>4.283822857366303E+42</v>
+        <v>863.6155538701398</v>
       </c>
       <c r="D64">
-        <v>174.7808566785048</v>
-      </c>
-      <c r="E64" t="s">
-        <v>74</v>
+        <v>-55.64712436564023</v>
+      </c>
+      <c r="E64">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1695,13 +1692,13 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>4.283822857366295E+42</v>
+        <v>596.6628841870568</v>
       </c>
       <c r="D65">
-        <v>270.7925154468987</v>
-      </c>
-      <c r="E65" t="s">
-        <v>74</v>
+        <v>814.8585818011305</v>
+      </c>
+      <c r="E65">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1712,13 +1709,13 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>4.283822857366254E+42</v>
+        <v>187.4764519529174</v>
       </c>
       <c r="D66">
-        <v>-70.58227128516809</v>
-      </c>
-      <c r="E66" t="s">
-        <v>74</v>
+        <v>101.6291166644905</v>
+      </c>
+      <c r="E66">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1729,13 +1726,13 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>4.283822857366318E+42</v>
+        <v>518.2131110744394</v>
       </c>
       <c r="D67">
-        <v>270.7925154468987</v>
-      </c>
-      <c r="E67" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E67">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1746,13 +1743,13 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>4.283822857366388E+42</v>
+        <v>508.5168392641323</v>
       </c>
       <c r="D68">
-        <v>729.5148851181137</v>
-      </c>
-      <c r="E68" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E68">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1763,13 +1760,13 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>4.283822857366368E+42</v>
+        <v>45.35618448746543</v>
       </c>
       <c r="D69">
-        <v>-1.240517730217128</v>
-      </c>
-      <c r="E69" t="s">
-        <v>74</v>
+        <v>260.1245533615216</v>
+      </c>
+      <c r="E69">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1780,13 +1777,13 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>4.283822857366279E+42</v>
+        <v>307.2464167171082</v>
       </c>
       <c r="D70">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E70" t="s">
-        <v>74</v>
+        <v>-55.64712436564023</v>
+      </c>
+      <c r="E70">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1797,13 +1794,13 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>4.28382285736643E+42</v>
+        <v>195.1583648690926</v>
       </c>
       <c r="D71">
         <v>161.9793021760524</v>
       </c>
-      <c r="E71" t="s">
-        <v>74</v>
+      <c r="E71">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1814,13 +1811,13 @@
         <v>4</v>
       </c>
       <c r="C72">
-        <v>1.819071806089513E+41</v>
+        <v>375.4620121725607</v>
       </c>
       <c r="D72">
-        <v>221.3319639601504</v>
-      </c>
-      <c r="E72" t="s">
-        <v>74</v>
+        <v>-127.4780690738459</v>
+      </c>
+      <c r="E72">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1831,13 +1828,13 @@
         <v>5</v>
       </c>
       <c r="C73">
-        <v>1.819071806089518E+41</v>
+        <v>205.9402326318028</v>
       </c>
       <c r="D73">
-        <v>-577.3104703405802</v>
-      </c>
-      <c r="E73" t="s">
-        <v>74</v>
+        <v>-410.4330634336097</v>
+      </c>
+      <c r="E73">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1848,13 +1845,13 @@
         <v>6</v>
       </c>
       <c r="C74">
-        <v>1.819071806089444E+41</v>
+        <v>324.8368008943748</v>
       </c>
       <c r="D74">
-        <v>804.6173381991684</v>
-      </c>
-      <c r="E74" t="s">
-        <v>74</v>
+        <v>485.6757517380658</v>
+      </c>
+      <c r="E74">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1865,13 +1862,13 @@
         <v>7</v>
       </c>
       <c r="C75">
-        <v>1.819071806089531E+41</v>
+        <v>299.8210570427344</v>
       </c>
       <c r="D75">
-        <v>-251.9376267365788</v>
-      </c>
-      <c r="E75" t="s">
-        <v>74</v>
+        <v>-154.4019733845596</v>
+      </c>
+      <c r="E75">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1882,13 +1879,13 @@
         <v>8</v>
       </c>
       <c r="C76">
-        <v>1.819071806089546E+41</v>
+        <v>306.2299051824329</v>
       </c>
       <c r="D76">
-        <v>46.76531165397978</v>
-      </c>
-      <c r="E76" t="s">
-        <v>74</v>
+        <v>805.2574159242911</v>
+      </c>
+      <c r="E76">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1899,13 +1896,13 @@
         <v>9</v>
       </c>
       <c r="C77">
-        <v>1.819071806089513E+41</v>
+        <v>604.1657881893287</v>
       </c>
       <c r="D77">
-        <v>718.8469230327365</v>
-      </c>
-      <c r="E77" t="s">
-        <v>74</v>
+        <v>776.4539182937727</v>
+      </c>
+      <c r="E77">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1916,13 +1913,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>1.819071806089617E+41</v>
+        <v>480.2283669252791</v>
       </c>
       <c r="D78">
-        <v>-260.4719964048805</v>
-      </c>
-      <c r="E78" t="s">
-        <v>74</v>
+        <v>725.9588977563214</v>
+      </c>
+      <c r="E78">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1933,13 +1930,13 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>1.819071806089564E+41</v>
+        <v>197.9095277840377</v>
       </c>
       <c r="D79">
-        <v>132.1090083369965</v>
-      </c>
-      <c r="E79" t="s">
-        <v>74</v>
+        <v>485.6757517380658</v>
+      </c>
+      <c r="E79">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1950,13 +1947,13 @@
         <v>12</v>
       </c>
       <c r="C80">
-        <v>1.819071806089556E+41</v>
+        <v>377.1050202485647</v>
       </c>
       <c r="D80">
-        <v>718.8469230327365</v>
-      </c>
-      <c r="E80" t="s">
-        <v>74</v>
+        <v>776.4539182937727</v>
+      </c>
+      <c r="E80">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1967,13 +1964,13 @@
         <v>13</v>
       </c>
       <c r="C81">
-        <v>1.819071806089561E+41</v>
+        <v>253.2814892474368</v>
       </c>
       <c r="D81">
-        <v>708.1789609473594</v>
-      </c>
-      <c r="E81" t="s">
-        <v>74</v>
+        <v>725.9588977563214</v>
+      </c>
+      <c r="E81">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1984,13 +1981,13 @@
         <v>14</v>
       </c>
       <c r="C82">
-        <v>1.819071806089581E+41</v>
+        <v>734.1356634957883</v>
       </c>
       <c r="D82">
-        <v>800.0875573752236</v>
-      </c>
-      <c r="E82" t="s">
-        <v>74</v>
+        <v>725.9588977563214</v>
+      </c>
+      <c r="E82">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2001,13 +1998,13 @@
         <v>15</v>
       </c>
       <c r="C83">
-        <v>1.819071806089562E+41</v>
+        <v>259.2941009617541</v>
       </c>
       <c r="D83">
-        <v>149.1777476735998</v>
-      </c>
-      <c r="E83" t="s">
-        <v>74</v>
+        <v>132.1090083369965</v>
+      </c>
+      <c r="E83">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2018,13 +2015,13 @@
         <v>16</v>
       </c>
       <c r="C84">
-        <v>1.819071806089454E+41</v>
+        <v>502.7739086982062</v>
       </c>
       <c r="D84">
-        <v>804.6173381991684</v>
-      </c>
-      <c r="E84" t="s">
-        <v>74</v>
+        <v>462.8158329836863</v>
+      </c>
+      <c r="E84">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2035,13 +2032,13 @@
         <v>17</v>
       </c>
       <c r="C85">
-        <v>1.819071806089536E+41</v>
+        <v>255.4746822173769</v>
       </c>
       <c r="D85">
-        <v>132.1090083369965</v>
-      </c>
-      <c r="E85" t="s">
-        <v>74</v>
+        <v>421.6679792258033</v>
+      </c>
+      <c r="E85">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2052,13 +2049,13 @@
         <v>18</v>
       </c>
       <c r="C86">
-        <v>1.819071806089543E+41</v>
+        <v>263.9891446586162</v>
       </c>
       <c r="D86">
-        <v>132.1090083369965</v>
-      </c>
-      <c r="E86" t="s">
-        <v>74</v>
+        <v>485.6757517380658</v>
+      </c>
+      <c r="E86">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2069,13 +2066,13 @@
         <v>19</v>
       </c>
       <c r="C87">
-        <v>1.819071806089479E+41</v>
+        <v>525.9312526416982</v>
       </c>
       <c r="D87">
-        <v>132.1090083369965</v>
-      </c>
-      <c r="E87" t="s">
-        <v>74</v>
+        <v>-127.4780690738459</v>
+      </c>
+      <c r="E87">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2086,13 +2083,13 @@
         <v>20</v>
       </c>
       <c r="C88">
-        <v>1.819071806089554E+41</v>
+        <v>924.7137199923684</v>
       </c>
       <c r="D88">
-        <v>513.1076542433212</v>
-      </c>
-      <c r="E88" t="s">
-        <v>74</v>
+        <v>725.9588977563214</v>
+      </c>
+      <c r="E88">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2103,13 +2100,13 @@
         <v>21</v>
       </c>
       <c r="C89">
-        <v>1.819071806089464E+41</v>
+        <v>549.6600251282115</v>
       </c>
       <c r="D89">
-        <v>-127.8013406521908</v>
-      </c>
-      <c r="E89" t="s">
-        <v>74</v>
+        <v>805.2574159242911</v>
+      </c>
+      <c r="E89">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2120,13 +2117,13 @@
         <v>22</v>
       </c>
       <c r="C90">
-        <v>1.819071806089549E+41</v>
+        <v>18.00200323515582</v>
       </c>
       <c r="D90">
-        <v>718.8469230327365</v>
-      </c>
-      <c r="E90" t="s">
-        <v>74</v>
+        <v>776.4539182937727</v>
+      </c>
+      <c r="E90">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2137,13 +2134,13 @@
         <v>23</v>
       </c>
       <c r="C91">
-        <v>1.8190718060895E+41</v>
+        <v>185.5129914468923</v>
       </c>
       <c r="D91">
-        <v>827.6601363035829</v>
-      </c>
-      <c r="E91" t="s">
-        <v>74</v>
+        <v>725.9588977563214</v>
+      </c>
+      <c r="E91">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2154,13 +2151,13 @@
         <v>24</v>
       </c>
       <c r="C92">
-        <v>1.819071806089525E+41</v>
+        <v>785.2005964713633</v>
       </c>
       <c r="D92">
-        <v>826.1540710680001</v>
-      </c>
-      <c r="E92" t="s">
-        <v>74</v>
+        <v>-305.2774371634642</v>
+      </c>
+      <c r="E92">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2171,13 +2168,13 @@
         <v>25</v>
       </c>
       <c r="C93">
-        <v>1.819071806089438E+41</v>
+        <v>320.2864460976322</v>
       </c>
       <c r="D93">
-        <v>132.1090083369965</v>
-      </c>
-      <c r="E93" t="s">
-        <v>74</v>
+        <v>36.09734956860268</v>
+      </c>
+      <c r="E93">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2188,13 +2185,13 @@
         <v>26</v>
       </c>
       <c r="C94">
-        <v>1.81907180608947E+41</v>
+        <v>375.5007485266282</v>
       </c>
       <c r="D94">
-        <v>804.6173381991684</v>
-      </c>
-      <c r="E94" t="s">
-        <v>74</v>
+        <v>809.0396933909246</v>
+      </c>
+      <c r="E94">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2205,13 +2202,13 @@
         <v>27</v>
       </c>
       <c r="C95">
-        <v>1.819071806089641E+41</v>
+        <v>250.1752571782094</v>
       </c>
       <c r="D95">
-        <v>221.3319639601504</v>
-      </c>
-      <c r="E95" t="s">
-        <v>74</v>
+        <v>-127.4780690738459</v>
+      </c>
+      <c r="E95">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2222,13 +2219,13 @@
         <v>28</v>
       </c>
       <c r="C96">
-        <v>1.819071806089542E+41</v>
+        <v>174.392106169829</v>
       </c>
       <c r="D96">
-        <v>149.1777476735998</v>
-      </c>
-      <c r="E96" t="s">
-        <v>74</v>
+        <v>805.2574159242911</v>
+      </c>
+      <c r="E96">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2239,13 +2236,13 @@
         <v>29</v>
       </c>
       <c r="C97">
-        <v>1.819071806089558E+41</v>
+        <v>369.9624337044953</v>
       </c>
       <c r="D97">
-        <v>827.6601363035829</v>
-      </c>
-      <c r="E97" t="s">
-        <v>74</v>
+        <v>-410.4330634336097</v>
+      </c>
+      <c r="E97">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2256,13 +2253,13 @@
         <v>30</v>
       </c>
       <c r="C98">
-        <v>1.819071806089463E+41</v>
+        <v>678.9538641062903</v>
       </c>
       <c r="D98">
-        <v>826.1540710680001</v>
-      </c>
-      <c r="E98" t="s">
-        <v>74</v>
+        <v>809.0396933909246</v>
+      </c>
+      <c r="E98">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2273,13 +2270,13 @@
         <v>31</v>
       </c>
       <c r="C99">
-        <v>1.819071806089537E+41</v>
+        <v>165.2387361028181</v>
       </c>
       <c r="D99">
-        <v>462.8158329836864</v>
-      </c>
-      <c r="E99" t="s">
-        <v>74</v>
+        <v>485.6757517380658</v>
+      </c>
+      <c r="E99">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2290,13 +2287,13 @@
         <v>32</v>
       </c>
       <c r="C100">
-        <v>1.819071806089552E+41</v>
+        <v>538.9746148486798</v>
       </c>
       <c r="D100">
-        <v>804.6173381991684</v>
-      </c>
-      <c r="E100" t="s">
-        <v>74</v>
+        <v>805.2574159242911</v>
+      </c>
+      <c r="E100">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2307,13 +2304,13 @@
         <v>33</v>
       </c>
       <c r="C101">
-        <v>1.819071806089558E+41</v>
+        <v>522.2028806532558</v>
       </c>
       <c r="D101">
-        <v>513.1076542433212</v>
-      </c>
-      <c r="E101" t="s">
-        <v>74</v>
+        <v>725.9588977563214</v>
+      </c>
+      <c r="E101">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2324,13 +2321,13 @@
         <v>34</v>
       </c>
       <c r="C102">
-        <v>1.819071806089553E+41</v>
+        <v>398.3953258587566</v>
       </c>
       <c r="D102">
-        <v>85.16997516133733</v>
-      </c>
-      <c r="E102" t="s">
-        <v>74</v>
+        <v>-410.4330634336097</v>
+      </c>
+      <c r="E102">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2341,13 +2338,13 @@
         <v>35</v>
       </c>
       <c r="C103">
-        <v>1.819071806089551E+41</v>
+        <v>417.5424808671871</v>
       </c>
       <c r="D103">
-        <v>149.1777476735998</v>
-      </c>
-      <c r="E103" t="s">
-        <v>74</v>
+        <v>110.7730841662423</v>
+      </c>
+      <c r="E103">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2358,13 +2355,13 @@
         <v>36</v>
       </c>
       <c r="C104">
-        <v>1.819071806089542E+41</v>
+        <v>602.3683670789845</v>
       </c>
       <c r="D104">
-        <v>-260.4719964048805</v>
-      </c>
-      <c r="E104" t="s">
-        <v>74</v>
+        <v>334.8002879591612</v>
+      </c>
+      <c r="E104">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2375,13 +2372,13 @@
         <v>37</v>
       </c>
       <c r="C105">
-        <v>1.81907180608949E+41</v>
+        <v>221.9287793811008</v>
       </c>
       <c r="D105">
-        <v>462.8158329836864</v>
-      </c>
-      <c r="E105" t="s">
-        <v>74</v>
+        <v>725.9588977563214</v>
+      </c>
+      <c r="E105">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2392,13 +2389,13 @@
         <v>38</v>
       </c>
       <c r="C106">
-        <v>1.819071806089538E+41</v>
+        <v>67.19614062604683</v>
       </c>
       <c r="D106">
-        <v>485.6757517380658</v>
-      </c>
-      <c r="E106" t="s">
-        <v>74</v>
+        <v>-127.4780690738459</v>
+      </c>
+      <c r="E106">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2409,13 +2406,13 @@
         <v>39</v>
       </c>
       <c r="C107">
-        <v>1.819071806089517E+41</v>
+        <v>583.8317545609416</v>
       </c>
       <c r="D107">
-        <v>149.1777476735998</v>
-      </c>
-      <c r="E107" t="s">
-        <v>74</v>
+        <v>878.8663543133929</v>
+      </c>
+      <c r="E107">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2426,13 +2423,13 @@
         <v>40</v>
       </c>
       <c r="C108">
-        <v>1.819071806089546E+41</v>
+        <v>744.917923522343</v>
       </c>
       <c r="D108">
-        <v>-127.8013406521908</v>
-      </c>
-      <c r="E108" t="s">
-        <v>74</v>
+        <v>36.09734956860268</v>
+      </c>
+      <c r="E108">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2443,13 +2440,13 @@
         <v>41</v>
       </c>
       <c r="C109">
-        <v>1.819071806089461E+41</v>
+        <v>686.4628764727668</v>
       </c>
       <c r="D109">
-        <v>800.0875573752236</v>
-      </c>
-      <c r="E109" t="s">
-        <v>74</v>
+        <v>-127.4780690738459</v>
+      </c>
+      <c r="E109">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2460,13 +2457,13 @@
         <v>42</v>
       </c>
       <c r="C110">
-        <v>1.819071806089507E+41</v>
+        <v>528.4892470192748</v>
       </c>
       <c r="D110">
-        <v>85.16997516133733</v>
-      </c>
-      <c r="E110" t="s">
-        <v>74</v>
+        <v>-410.4330634336097</v>
+      </c>
+      <c r="E110">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2477,13 +2474,13 @@
         <v>43</v>
       </c>
       <c r="C111">
-        <v>1.819071806089616E+41</v>
+        <v>163.0881199743495</v>
       </c>
       <c r="D111">
-        <v>132.1090083369965</v>
-      </c>
-      <c r="E111" t="s">
-        <v>74</v>
+        <v>776.4539182937727</v>
+      </c>
+      <c r="E111">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2494,13 +2491,13 @@
         <v>44</v>
       </c>
       <c r="C112">
-        <v>1.819071806089628E+41</v>
+        <v>-196.4099612195218</v>
       </c>
       <c r="D112">
-        <v>-577.3104703405802</v>
-      </c>
-      <c r="E112" t="s">
-        <v>74</v>
+        <v>334.8002879591612</v>
+      </c>
+      <c r="E112">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2511,13 +2508,13 @@
         <v>45</v>
       </c>
       <c r="C113">
-        <v>1.819071806089584E+41</v>
+        <v>347.5866067330397</v>
       </c>
       <c r="D113">
-        <v>804.6173381991684</v>
-      </c>
-      <c r="E113" t="s">
-        <v>74</v>
+        <v>-410.4330634336097</v>
+      </c>
+      <c r="E113">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2528,13 +2525,13 @@
         <v>46</v>
       </c>
       <c r="C114">
-        <v>1.819071806089504E+41</v>
+        <v>250.1174191425221</v>
       </c>
       <c r="D114">
-        <v>800.0875573752236</v>
-      </c>
-      <c r="E114" t="s">
-        <v>74</v>
+        <v>725.9588977563214</v>
+      </c>
+      <c r="E114">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2545,13 +2542,13 @@
         <v>47</v>
       </c>
       <c r="C115">
-        <v>1.819071806089581E+41</v>
+        <v>550.7493871080856</v>
       </c>
       <c r="D115">
-        <v>804.6173381991684</v>
-      </c>
-      <c r="E115" t="s">
-        <v>74</v>
+        <v>805.2574159242911</v>
+      </c>
+      <c r="E115">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2562,13 +2559,13 @@
         <v>48</v>
       </c>
       <c r="C116">
-        <v>1.819071806089584E+41</v>
+        <v>840.7169496982883</v>
       </c>
       <c r="D116">
-        <v>804.6173381991684</v>
-      </c>
-      <c r="E116" t="s">
-        <v>74</v>
+        <v>805.2574159242911</v>
+      </c>
+      <c r="E116">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2579,13 +2576,13 @@
         <v>49</v>
       </c>
       <c r="C117">
-        <v>1.819071806089213E+41</v>
+        <v>118.9773350898326</v>
       </c>
       <c r="D117">
-        <v>826.1540710680001</v>
-      </c>
-      <c r="E117" t="s">
-        <v>74</v>
+        <v>809.0396933909246</v>
+      </c>
+      <c r="E117">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2596,13 +2593,13 @@
         <v>50</v>
       </c>
       <c r="C118">
-        <v>1.819071806089509E+41</v>
+        <v>483.204626412183</v>
       </c>
       <c r="D118">
-        <v>800.0875573752236</v>
-      </c>
-      <c r="E118" t="s">
-        <v>74</v>
+        <v>725.9588977563214</v>
+      </c>
+      <c r="E118">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2613,13 +2610,13 @@
         <v>51</v>
       </c>
       <c r="C119">
-        <v>1.819071806089549E+41</v>
+        <v>454.5114282279257</v>
       </c>
       <c r="D119">
-        <v>804.6173381991684</v>
-      </c>
-      <c r="E119" t="s">
-        <v>74</v>
+        <v>110.7730841662423</v>
+      </c>
+      <c r="E119">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2630,13 +2627,13 @@
         <v>52</v>
       </c>
       <c r="C120">
-        <v>1.819071806089393E+41</v>
+        <v>228.9859293513455</v>
       </c>
       <c r="D120">
         <v>485.6757517380658</v>
       </c>
-      <c r="E120" t="s">
-        <v>74</v>
+      <c r="E120">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2647,13 +2644,13 @@
         <v>53</v>
       </c>
       <c r="C121">
-        <v>1.819071806089537E+41</v>
+        <v>440.878940215116</v>
       </c>
       <c r="D121">
-        <v>-127.8013406521908</v>
-      </c>
-      <c r="E121" t="s">
-        <v>74</v>
+        <v>110.7730841662423</v>
+      </c>
+      <c r="E121">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2664,13 +2661,13 @@
         <v>54</v>
       </c>
       <c r="C122">
-        <v>1.819071806089502E+41</v>
+        <v>775.8144115445351</v>
       </c>
       <c r="D122">
-        <v>-260.4719964048805</v>
-      </c>
-      <c r="E122" t="s">
-        <v>74</v>
+        <v>725.9588977563214</v>
+      </c>
+      <c r="E122">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2681,13 +2678,13 @@
         <v>55</v>
       </c>
       <c r="C123">
-        <v>1.819071806089553E+41</v>
+        <v>372.8789461619648</v>
       </c>
       <c r="D123">
-        <v>804.6173381991684</v>
-      </c>
-      <c r="E123" t="s">
-        <v>74</v>
+        <v>857.5304301426386</v>
+      </c>
+      <c r="E123">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2698,13 +2695,13 @@
         <v>56</v>
       </c>
       <c r="C124">
-        <v>1.819071806089586E+41</v>
+        <v>245.6842947258116</v>
       </c>
       <c r="D124">
-        <v>485.6757517380658</v>
-      </c>
-      <c r="E124" t="s">
-        <v>74</v>
+        <v>36.09734956860268</v>
+      </c>
+      <c r="E124">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2715,13 +2712,13 @@
         <v>57</v>
       </c>
       <c r="C125">
-        <v>1.819071806089493E+41</v>
+        <v>405.366063189692</v>
       </c>
       <c r="D125">
-        <v>804.6173381991684</v>
-      </c>
-      <c r="E125" t="s">
-        <v>74</v>
+        <v>110.7730841662423</v>
+      </c>
+      <c r="E125">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2732,13 +2729,13 @@
         <v>58</v>
       </c>
       <c r="C126">
-        <v>1.819071806089595E+41</v>
+        <v>190.2648248196696</v>
       </c>
       <c r="D126">
-        <v>513.1076542433212</v>
-      </c>
-      <c r="E126" t="s">
-        <v>74</v>
+        <v>-154.4019733845596</v>
+      </c>
+      <c r="E126">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2749,13 +2746,13 @@
         <v>59</v>
       </c>
       <c r="C127">
-        <v>1.819071806089574E+41</v>
+        <v>463.0618977981412</v>
       </c>
       <c r="D127">
-        <v>-251.9376267365788</v>
-      </c>
-      <c r="E127" t="s">
-        <v>74</v>
+        <v>-127.4780690738459</v>
+      </c>
+      <c r="E127">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2766,13 +2763,13 @@
         <v>60</v>
       </c>
       <c r="C128">
-        <v>1.819071806089562E+41</v>
+        <v>541.7136524861749</v>
       </c>
       <c r="D128">
-        <v>132.1090083369965</v>
-      </c>
-      <c r="E128" t="s">
-        <v>74</v>
+        <v>805.2574159242911</v>
+      </c>
+      <c r="E128">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2783,13 +2780,13 @@
         <v>61</v>
       </c>
       <c r="C129">
-        <v>1.819071806089483E+41</v>
+        <v>186.1445961032942</v>
       </c>
       <c r="D129">
-        <v>804.6173381991684</v>
-      </c>
-      <c r="E129" t="s">
-        <v>74</v>
+        <v>805.2574159242911</v>
+      </c>
+      <c r="E129">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2800,13 +2797,13 @@
         <v>62</v>
       </c>
       <c r="C130">
-        <v>1.819071806089608E+41</v>
+        <v>509.8735200770845</v>
       </c>
       <c r="D130">
-        <v>708.1789609473594</v>
-      </c>
-      <c r="E130" t="s">
-        <v>74</v>
+        <v>805.2574159242911</v>
+      </c>
+      <c r="E130">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2817,13 +2814,13 @@
         <v>63</v>
       </c>
       <c r="C131">
-        <v>1.819071806089562E+41</v>
+        <v>87.80140705968017</v>
       </c>
       <c r="D131">
-        <v>-127.8013406521908</v>
-      </c>
-      <c r="E131" t="s">
-        <v>74</v>
+        <v>776.4539182937727</v>
+      </c>
+      <c r="E131">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2834,13 +2831,13 @@
         <v>64</v>
       </c>
       <c r="C132">
-        <v>1.819071806089355E+41</v>
+        <v>715.3559330611236</v>
       </c>
       <c r="D132">
-        <v>804.6173381991684</v>
-      </c>
-      <c r="E132" t="s">
-        <v>74</v>
+        <v>805.2574159242911</v>
+      </c>
+      <c r="E132">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2851,13 +2848,13 @@
         <v>65</v>
       </c>
       <c r="C133">
-        <v>1.819071806089541E+41</v>
+        <v>410.4034058259076</v>
       </c>
       <c r="D133">
-        <v>-127.8013406521908</v>
-      </c>
-      <c r="E133" t="s">
-        <v>74</v>
+        <v>132.1090083369965</v>
+      </c>
+      <c r="E133">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2868,13 +2865,13 @@
         <v>66</v>
       </c>
       <c r="C134">
-        <v>1.819071806089517E+41</v>
+        <v>942.9450073896332</v>
       </c>
       <c r="D134">
-        <v>826.1540710680001</v>
-      </c>
-      <c r="E134" t="s">
-        <v>74</v>
+        <v>132.1090083369965</v>
+      </c>
+      <c r="E134">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2885,13 +2882,13 @@
         <v>67</v>
       </c>
       <c r="C135">
-        <v>1.819071806089446E+41</v>
+        <v>505.1514450773504</v>
       </c>
       <c r="D135">
-        <v>826.1540710680001</v>
-      </c>
-      <c r="E135" t="s">
-        <v>74</v>
+        <v>809.0396933909246</v>
+      </c>
+      <c r="E135">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2902,13 +2899,13 @@
         <v>68</v>
       </c>
       <c r="C136">
-        <v>1.819071806089433E+41</v>
+        <v>326.4587144064604</v>
       </c>
       <c r="D136">
-        <v>-127.8013406521908</v>
-      </c>
-      <c r="E136" t="s">
-        <v>74</v>
+        <v>725.9588977563214</v>
+      </c>
+      <c r="E136">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2919,13 +2916,13 @@
         <v>69</v>
       </c>
       <c r="C137">
-        <v>1.819071806089511E+41</v>
+        <v>550.6959223644679</v>
       </c>
       <c r="D137">
-        <v>462.8158329836864</v>
-      </c>
-      <c r="E137" t="s">
-        <v>74</v>
+        <v>725.9588977563214</v>
+      </c>
+      <c r="E137">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2936,13 +2933,13 @@
         <v>70</v>
       </c>
       <c r="C138">
-        <v>1.819071806089517E+41</v>
+        <v>463.0675589779088</v>
       </c>
       <c r="D138">
-        <v>826.1540710680001</v>
-      </c>
-      <c r="E138" t="s">
-        <v>74</v>
+        <v>725.9588977563214</v>
+      </c>
+      <c r="E138">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2953,13 +2950,13 @@
         <v>71</v>
       </c>
       <c r="C139">
-        <v>1.819071806089546E+41</v>
+        <v>329.5861719222337</v>
       </c>
       <c r="D139">
-        <v>-127.8013406521908</v>
-      </c>
-      <c r="E139" t="s">
-        <v>74</v>
+        <v>485.6757517380658</v>
+      </c>
+      <c r="E139">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2970,13 +2967,13 @@
         <v>72</v>
       </c>
       <c r="C140">
-        <v>1.8190718060893E+41</v>
+        <v>353.3779160027677</v>
       </c>
       <c r="D140">
-        <v>-127.8013406521908</v>
-      </c>
-      <c r="E140" t="s">
-        <v>74</v>
+        <v>-127.4780690738459</v>
+      </c>
+      <c r="E140">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2987,13 +2984,13 @@
         <v>73</v>
       </c>
       <c r="C141">
-        <v>1.819071806089503E+41</v>
+        <v>280.5380688520415</v>
       </c>
       <c r="D141">
-        <v>85.16997516133733</v>
-      </c>
-      <c r="E141" t="s">
-        <v>74</v>
+        <v>-410.4330634336097</v>
+      </c>
+      <c r="E141">
+        <v>415.8227848101265</v>
       </c>
     </row>
   </sheetData>

--- a/adresso_False.xlsx
+++ b/adresso_False.xlsx
@@ -621,10 +621,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>722.1498309364724</v>
+        <v>671.6600882773695</v>
       </c>
       <c r="D2">
-        <v>769.5847914875789</v>
+        <v>824.7059314184015</v>
       </c>
       <c r="E2">
         <v>415.8227848101265</v>
@@ -638,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>142.5481928879551</v>
+        <v>241.813104453222</v>
       </c>
       <c r="D3">
-        <v>161.9793021760524</v>
+        <v>110.7730841662423</v>
       </c>
       <c r="E3">
         <v>415.8227848101265</v>
@@ -655,10 +655,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>244.2543865407443</v>
+        <v>266.6677601639852</v>
       </c>
       <c r="D4">
-        <v>769.5847914875789</v>
+        <v>-11.90847981559413</v>
       </c>
       <c r="E4">
         <v>415.8227848101265</v>
@@ -672,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>272.4161243439281</v>
+        <v>271.8751614689164</v>
       </c>
       <c r="D5">
-        <v>452.1478708983092</v>
+        <v>-98.70689860116244</v>
       </c>
       <c r="E5">
         <v>415.8227848101265</v>
@@ -689,10 +689,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>276.0432286862947</v>
+        <v>377.9321997574473</v>
       </c>
       <c r="D6">
-        <v>-85.82221712142113</v>
+        <v>136.3761931711474</v>
       </c>
       <c r="E6">
         <v>415.8227848101265</v>
@@ -706,10 +706,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>553.0095763960891</v>
+        <v>575.4944687348897</v>
       </c>
       <c r="D7">
-        <v>805.0112321838592</v>
+        <v>25.42938748322563</v>
       </c>
       <c r="E7">
         <v>415.8227848101265</v>
@@ -723,10 +723,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>681.4491648769002</v>
+        <v>690.7018690190632</v>
       </c>
       <c r="D8">
-        <v>769.5847914875789</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E8">
         <v>415.8227848101265</v>
@@ -740,10 +740,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>200.5936782634124</v>
+        <v>49.74944968040104</v>
       </c>
       <c r="D9">
-        <v>-55.64712436564023</v>
+        <v>-98.70689860116244</v>
       </c>
       <c r="E9">
         <v>415.8227848101265</v>
@@ -757,10 +757,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>356.5068579634259</v>
+        <v>412.9740623182878</v>
       </c>
       <c r="D10">
-        <v>769.5847914875789</v>
+        <v>824.7059314184015</v>
       </c>
       <c r="E10">
         <v>415.8227848101265</v>
@@ -774,10 +774,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>358.2363605223612</v>
+        <v>290.6417678669075</v>
       </c>
       <c r="D11">
-        <v>769.5847914875789</v>
+        <v>-625.3162997247771</v>
       </c>
       <c r="E11">
         <v>415.8227848101265</v>
@@ -791,10 +791,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>674.4435819675817</v>
+        <v>669.0552124088285</v>
       </c>
       <c r="D12">
-        <v>260.1245533615216</v>
+        <v>773.7107280432473</v>
       </c>
       <c r="E12">
         <v>415.8227848101265</v>
@@ -808,10 +808,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>401.9822851235797</v>
+        <v>515.8195236661149</v>
       </c>
       <c r="D13">
-        <v>78.76919791011103</v>
+        <v>693.95501150019</v>
       </c>
       <c r="E13">
         <v>415.8227848101265</v>
@@ -825,10 +825,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>493.3737461433001</v>
+        <v>484.4192368839809</v>
       </c>
       <c r="D14">
-        <v>590.8313780082116</v>
+        <v>302.79640170303</v>
       </c>
       <c r="E14">
         <v>415.8227848101265</v>
@@ -842,10 +842,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>342.4739897266419</v>
+        <v>341.2968747076939</v>
       </c>
       <c r="D15">
-        <v>805.0112321838592</v>
+        <v>773.7107280432473</v>
       </c>
       <c r="E15">
         <v>415.8227848101265</v>
@@ -859,10 +859,10 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>112.739901301428</v>
+        <v>116.7262941530832</v>
       </c>
       <c r="D16">
-        <v>190.7827998065706</v>
+        <v>773.7107280432473</v>
       </c>
       <c r="E16">
         <v>415.8227848101265</v>
@@ -876,10 +876,10 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>535.6632852395014</v>
+        <v>550.9552241222821</v>
       </c>
       <c r="D17">
-        <v>769.5847914875789</v>
+        <v>520.4228282447226</v>
       </c>
       <c r="E17">
         <v>415.8227848101265</v>
@@ -893,10 +893,10 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>958.4517679564601</v>
+        <v>937.3852653376231</v>
       </c>
       <c r="D18">
-        <v>805.0112321838592</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E18">
         <v>415.8227848101265</v>
@@ -910,10 +910,10 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>532.9057085233682</v>
+        <v>472.0353593312323</v>
       </c>
       <c r="D19">
-        <v>-55.64712436564023</v>
+        <v>-129.2560627547422</v>
       </c>
       <c r="E19">
         <v>415.8227848101265</v>
@@ -927,10 +927,10 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>-25.63087186719468</v>
+        <v>57.6621134108142</v>
       </c>
       <c r="D20">
-        <v>805.0112321838592</v>
+        <v>-11.90847981559413</v>
       </c>
       <c r="E20">
         <v>415.8227848101265</v>
@@ -944,10 +944,10 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>253.0406195253309</v>
+        <v>359.3751390314144</v>
       </c>
       <c r="D21">
-        <v>147.3489541732495</v>
+        <v>-11.90847981559413</v>
       </c>
       <c r="E21">
         <v>415.8227848101265</v>
@@ -961,10 +961,10 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>385.5881992633018</v>
+        <v>120.5966930176395</v>
       </c>
       <c r="D22">
-        <v>769.5847914875789</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E22">
         <v>415.8227848101265</v>
@@ -978,10 +978,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>242.6320957011239</v>
+        <v>373.9261452462205</v>
       </c>
       <c r="D23">
-        <v>769.5847914875789</v>
+        <v>773.7107280432473</v>
       </c>
       <c r="E23">
         <v>415.8227848101265</v>
@@ -995,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>421.3514838004826</v>
+        <v>330.1931168576221</v>
       </c>
       <c r="D24">
-        <v>190.7827998065706</v>
+        <v>-11.90847981559413</v>
       </c>
       <c r="E24">
         <v>415.8227848101265</v>
@@ -1012,10 +1012,10 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>440.9077591909918</v>
+        <v>463.804099587642</v>
       </c>
       <c r="D25">
-        <v>452.1478708983092</v>
+        <v>743.7388345652832</v>
       </c>
       <c r="E25">
         <v>415.8227848101265</v>
@@ -1029,10 +1029,10 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>54.40623282987583</v>
+        <v>134.6662776081809</v>
       </c>
       <c r="D26">
-        <v>805.0112321838592</v>
+        <v>302.79640170303</v>
       </c>
       <c r="E26">
         <v>415.8227848101265</v>
@@ -1046,10 +1046,10 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>391.2398625291724</v>
+        <v>327.1451812766434</v>
       </c>
       <c r="D27">
-        <v>161.9793021760524</v>
+        <v>-129.2560627547422</v>
       </c>
       <c r="E27">
         <v>415.8227848101265</v>
@@ -1063,10 +1063,10 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>514.6403134960207</v>
+        <v>622.4398090857015</v>
       </c>
       <c r="D28">
-        <v>622.8352642643428</v>
+        <v>302.79640170303</v>
       </c>
       <c r="E28">
         <v>415.8227848101265</v>
@@ -1080,10 +1080,10 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>286.1215476732526</v>
+        <v>216.7852470954371</v>
       </c>
       <c r="D29">
-        <v>769.5847914875789</v>
+        <v>-625.3162997247771</v>
       </c>
       <c r="E29">
         <v>415.8227848101265</v>
@@ -1097,10 +1097,10 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>620.4575740208892</v>
+        <v>659.3664341360096</v>
       </c>
       <c r="D30">
-        <v>805.0112321838592</v>
+        <v>824.7059314184015</v>
       </c>
       <c r="E30">
         <v>415.8227848101265</v>
@@ -1114,10 +1114,10 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>610.494838588764</v>
+        <v>498.5616808890492</v>
       </c>
       <c r="D31">
-        <v>101.6291166644905</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E31">
         <v>415.8227848101265</v>
@@ -1131,10 +1131,10 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>514.1425179803657</v>
+        <v>452.3416629257541</v>
       </c>
       <c r="D32">
-        <v>161.9793021760524</v>
+        <v>110.7730841662424</v>
       </c>
       <c r="E32">
         <v>415.8227848101265</v>
@@ -1148,10 +1148,10 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>480.8184250989407</v>
+        <v>416.8187653760555</v>
       </c>
       <c r="D33">
-        <v>452.1478708983092</v>
+        <v>824.7059314184015</v>
       </c>
       <c r="E33">
         <v>415.8227848101265</v>
@@ -1165,10 +1165,10 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>547.9755607596375</v>
+        <v>509.4638859955967</v>
       </c>
       <c r="D34">
-        <v>161.9793021760524</v>
+        <v>824.7059314184015</v>
       </c>
       <c r="E34">
         <v>415.8227848101265</v>
@@ -1182,10 +1182,10 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>86.8628085580704</v>
+        <v>85.34021436212458</v>
       </c>
       <c r="D35">
-        <v>805.0112321838592</v>
+        <v>-625.3162997247771</v>
       </c>
       <c r="E35">
         <v>415.8227848101265</v>
@@ -1199,10 +1199,10 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>10.3594059244733</v>
+        <v>82.942905613177</v>
       </c>
       <c r="D36">
-        <v>89.43715999548816</v>
+        <v>-11.90847981559413</v>
       </c>
       <c r="E36">
         <v>415.8227848101265</v>
@@ -1216,10 +1216,10 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>523.0471005655552</v>
+        <v>567.7534108253889</v>
       </c>
       <c r="D37">
-        <v>147.3489541732495</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E37">
         <v>415.8227848101265</v>
@@ -1233,10 +1233,10 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>665.8559438499892</v>
+        <v>529.6232219979123</v>
       </c>
       <c r="D38">
-        <v>101.6291166644905</v>
+        <v>520.4228282447226</v>
       </c>
       <c r="E38">
         <v>415.8227848101265</v>
@@ -1250,10 +1250,10 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>772.8278054601456</v>
+        <v>726.9959758417</v>
       </c>
       <c r="D39">
-        <v>805.0112321838592</v>
+        <v>702.8449799046709</v>
       </c>
       <c r="E39">
         <v>415.8227848101265</v>
@@ -1267,10 +1267,10 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>540.5016850438506</v>
+        <v>468.5865344344837</v>
       </c>
       <c r="D40">
-        <v>161.9793021760524</v>
+        <v>110.7730841662424</v>
       </c>
       <c r="E40">
         <v>415.8227848101265</v>
@@ -1284,10 +1284,10 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>317.9738764083492</v>
+        <v>314.6779936940829</v>
       </c>
       <c r="D41">
-        <v>622.8352642643428</v>
+        <v>136.3761931711474</v>
       </c>
       <c r="E41">
         <v>415.8227848101265</v>
@@ -1301,10 +1301,10 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>254.8781325961579</v>
+        <v>-124.2446808111768</v>
       </c>
       <c r="D42">
-        <v>-577.31047034058</v>
+        <v>-577.3104703405802</v>
       </c>
       <c r="E42">
         <v>415.8227848101265</v>
@@ -1318,10 +1318,10 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>334.5710547404184</v>
+        <v>398.1426986080666</v>
       </c>
       <c r="D43">
-        <v>590.8313780082116</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E43">
         <v>415.8227848101265</v>
@@ -1335,10 +1335,10 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>358.2247670784342</v>
+        <v>322.8974710716063</v>
       </c>
       <c r="D44">
-        <v>814.8585818011305</v>
+        <v>773.7107280432473</v>
       </c>
       <c r="E44">
         <v>415.8227848101265</v>
@@ -1352,10 +1352,10 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>730.9351963846111</v>
+        <v>848.9848684317249</v>
       </c>
       <c r="D45">
-        <v>805.0112321838592</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E45">
         <v>415.8227848101265</v>
@@ -1369,10 +1369,10 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>727.8576662517048</v>
+        <v>709.5319716544446</v>
       </c>
       <c r="D46">
-        <v>769.5847914875789</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E46">
         <v>415.8227848101265</v>
@@ -1386,10 +1386,10 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>245.2239919385876</v>
+        <v>261.2017101165873</v>
       </c>
       <c r="D47">
-        <v>260.1245533615216</v>
+        <v>302.79640170303</v>
       </c>
       <c r="E47">
         <v>415.8227848101265</v>
@@ -1403,10 +1403,10 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>622.0367090443561</v>
+        <v>743.5127353353807</v>
       </c>
       <c r="D48">
-        <v>805.0112321838592</v>
+        <v>345.4682500445383</v>
       </c>
       <c r="E48">
         <v>415.8227848101265</v>
@@ -1420,10 +1420,10 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>419.1722349553896</v>
+        <v>239.4458376799539</v>
       </c>
       <c r="D49">
-        <v>101.6291166644905</v>
+        <v>-11.90847981559413</v>
       </c>
       <c r="E49">
         <v>415.8227848101265</v>
@@ -1437,10 +1437,10 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>294.2898683154803</v>
+        <v>358.0735084734831</v>
       </c>
       <c r="D50">
-        <v>-85.82221712142113</v>
+        <v>302.79640170303</v>
       </c>
       <c r="E50">
         <v>415.8227848101265</v>
@@ -1454,10 +1454,10 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>436.7604452040785</v>
+        <v>457.5845999048642</v>
       </c>
       <c r="D51">
-        <v>769.5847914875789</v>
+        <v>-98.70689860116244</v>
       </c>
       <c r="E51">
         <v>415.8227848101265</v>
@@ -1471,10 +1471,10 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>748.7612944455099</v>
+        <v>809.4448857620646</v>
       </c>
       <c r="D52">
-        <v>769.5847914875789</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E52">
         <v>415.8227848101265</v>
@@ -1488,10 +1488,10 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>361.1041934676909</v>
+        <v>552.9346769345844</v>
       </c>
       <c r="D53">
-        <v>805.0112321838592</v>
+        <v>743.7388345652832</v>
       </c>
       <c r="E53">
         <v>415.8227848101265</v>
@@ -1505,10 +1505,10 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>332.2929943465868</v>
+        <v>378.3978961396531</v>
       </c>
       <c r="D54">
-        <v>769.5847914875789</v>
+        <v>693.95501150019</v>
       </c>
       <c r="E54">
         <v>415.8227848101265</v>
@@ -1522,10 +1522,10 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>290.9502377421935</v>
+        <v>342.0914007400721</v>
       </c>
       <c r="D55">
-        <v>260.1245533615216</v>
+        <v>-11.90847981559413</v>
       </c>
       <c r="E55">
         <v>415.8227848101265</v>
@@ -1539,10 +1539,10 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>361.514660390947</v>
+        <v>355.0406568462288</v>
       </c>
       <c r="D56">
-        <v>805.0112321838592</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E56">
         <v>415.8227848101265</v>
@@ -1556,10 +1556,10 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>338.6357456622259</v>
+        <v>432.5059092223445</v>
       </c>
       <c r="D57">
-        <v>452.1478708983092</v>
+        <v>743.7388345652832</v>
       </c>
       <c r="E57">
         <v>415.8227848101265</v>
@@ -1573,10 +1573,10 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>567.4241011830777</v>
+        <v>394.7522673764636</v>
       </c>
       <c r="D58">
-        <v>805.0112321838592</v>
+        <v>-129.2560627547422</v>
       </c>
       <c r="E58">
         <v>415.8227848101265</v>
@@ -1590,10 +1590,10 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>54.44047749947749</v>
+        <v>75.82687623065803</v>
       </c>
       <c r="D59">
-        <v>-85.82221712142113</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E59">
         <v>415.8227848101265</v>
@@ -1607,10 +1607,10 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>611.9451428370484</v>
+        <v>629.0469875702842</v>
       </c>
       <c r="D60">
-        <v>441.4799088129321</v>
+        <v>-98.70689860116244</v>
       </c>
       <c r="E60">
         <v>415.8227848101265</v>
@@ -1624,10 +1624,10 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>56.89987778462434</v>
+        <v>121.4401489715508</v>
       </c>
       <c r="D61">
-        <v>769.5847914875789</v>
+        <v>693.95501150019</v>
       </c>
       <c r="E61">
         <v>415.8227848101265</v>
@@ -1641,10 +1641,10 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>746.0905919177226</v>
+        <v>676.5453941564485</v>
       </c>
       <c r="D62">
-        <v>769.5847914875789</v>
+        <v>302.79640170303</v>
       </c>
       <c r="E62">
         <v>415.8227848101265</v>
@@ -1658,10 +1658,10 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>391.2574484443421</v>
+        <v>617.7053963970295</v>
       </c>
       <c r="D63">
-        <v>260.1245533615216</v>
+        <v>-625.3162997247771</v>
       </c>
       <c r="E63">
         <v>415.8227848101265</v>
@@ -1675,10 +1675,10 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>863.6155538701398</v>
+        <v>883.1973229543075</v>
       </c>
       <c r="D64">
-        <v>-55.64712436564023</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E64">
         <v>415.8227848101265</v>
@@ -1692,10 +1692,10 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>596.6628841870568</v>
+        <v>559.2840559774419</v>
       </c>
       <c r="D65">
-        <v>814.8585818011305</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E65">
         <v>415.8227848101265</v>
@@ -1709,10 +1709,10 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>187.4764519529174</v>
+        <v>111.5243250804958</v>
       </c>
       <c r="D66">
-        <v>101.6291166644905</v>
+        <v>-98.70689860116244</v>
       </c>
       <c r="E66">
         <v>415.8227848101265</v>
@@ -1726,10 +1726,10 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>518.2131110744394</v>
+        <v>514.8573984580061</v>
       </c>
       <c r="D67">
-        <v>769.5847914875789</v>
+        <v>345.4682500445383</v>
       </c>
       <c r="E67">
         <v>415.8227848101265</v>
@@ -1743,10 +1743,10 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>508.5168392641323</v>
+        <v>359.4085272164039</v>
       </c>
       <c r="D68">
-        <v>769.5847914875789</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E68">
         <v>415.8227848101265</v>
@@ -1760,10 +1760,10 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>45.35618448746543</v>
+        <v>232.3975842245915</v>
       </c>
       <c r="D69">
-        <v>260.1245533615216</v>
+        <v>345.4682500445383</v>
       </c>
       <c r="E69">
         <v>415.8227848101265</v>
@@ -1777,10 +1777,10 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>307.2464167171082</v>
+        <v>324.6560098759213</v>
       </c>
       <c r="D70">
-        <v>-55.64712436564023</v>
+        <v>302.79640170303</v>
       </c>
       <c r="E70">
         <v>415.8227848101265</v>
@@ -1794,10 +1794,10 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>195.1583648690926</v>
+        <v>479.1504494261798</v>
       </c>
       <c r="D71">
-        <v>161.9793021760524</v>
+        <v>110.7730841662424</v>
       </c>
       <c r="E71">
         <v>415.8227848101265</v>
@@ -1811,10 +1811,10 @@
         <v>4</v>
       </c>
       <c r="C72">
-        <v>375.4620121725607</v>
+        <v>466.7538368213793</v>
       </c>
       <c r="D72">
-        <v>-127.4780690738459</v>
+        <v>-101.4632141638915</v>
       </c>
       <c r="E72">
         <v>415.8227848101265</v>
@@ -1828,10 +1828,10 @@
         <v>5</v>
       </c>
       <c r="C73">
-        <v>205.9402326318028</v>
+        <v>250.8480576112669</v>
       </c>
       <c r="D73">
-        <v>-410.4330634336097</v>
+        <v>213.1855201858624</v>
       </c>
       <c r="E73">
         <v>415.8227848101265</v>
@@ -1845,10 +1845,10 @@
         <v>6</v>
       </c>
       <c r="C74">
-        <v>324.8368008943748</v>
+        <v>347.2213950526087</v>
       </c>
       <c r="D74">
-        <v>485.6757517380658</v>
+        <v>228.9412795734963</v>
       </c>
       <c r="E74">
         <v>415.8227848101265</v>
@@ -1862,10 +1862,10 @@
         <v>7</v>
       </c>
       <c r="C75">
-        <v>299.8210570427344</v>
+        <v>333.9687206079759</v>
       </c>
       <c r="D75">
-        <v>-154.4019733845596</v>
+        <v>70.04086529480251</v>
       </c>
       <c r="E75">
         <v>415.8227848101265</v>
@@ -1879,10 +1879,10 @@
         <v>8</v>
       </c>
       <c r="C76">
-        <v>306.2299051824329</v>
+        <v>366.0862150309296</v>
       </c>
       <c r="D76">
-        <v>805.2574159242911</v>
+        <v>70.04086529480251</v>
       </c>
       <c r="E76">
         <v>415.8227848101265</v>
@@ -1896,10 +1896,10 @@
         <v>9</v>
       </c>
       <c r="C77">
-        <v>604.1657881893287</v>
+        <v>552.6883758811697</v>
       </c>
       <c r="D77">
-        <v>776.4539182937727</v>
+        <v>750.8508092888678</v>
       </c>
       <c r="E77">
         <v>415.8227848101265</v>
@@ -1913,10 +1913,10 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>480.2283669252791</v>
+        <v>447.7524694735342</v>
       </c>
       <c r="D78">
-        <v>725.9588977563214</v>
+        <v>70.04086529480251</v>
       </c>
       <c r="E78">
         <v>415.8227848101265</v>
@@ -1930,10 +1930,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>197.9095277840377</v>
+        <v>214.6532021244438</v>
       </c>
       <c r="D79">
-        <v>485.6757517380658</v>
+        <v>228.9412795734963</v>
       </c>
       <c r="E79">
         <v>415.8227848101265</v>
@@ -1947,10 +1947,10 @@
         <v>12</v>
       </c>
       <c r="C80">
-        <v>377.1050202485647</v>
+        <v>370.5350145087812</v>
       </c>
       <c r="D80">
-        <v>776.4539182937727</v>
+        <v>750.8508092888678</v>
       </c>
       <c r="E80">
         <v>415.8227848101265</v>
@@ -1964,10 +1964,10 @@
         <v>13</v>
       </c>
       <c r="C81">
-        <v>253.2814892474368</v>
+        <v>273.6841914518037</v>
       </c>
       <c r="D81">
-        <v>725.9588977563214</v>
+        <v>70.04086529480251</v>
       </c>
       <c r="E81">
         <v>415.8227848101265</v>
@@ -1981,10 +1981,10 @@
         <v>14</v>
       </c>
       <c r="C82">
-        <v>734.1356634957883</v>
+        <v>745.3908964003026</v>
       </c>
       <c r="D82">
-        <v>725.9588977563214</v>
+        <v>70.04086529480251</v>
       </c>
       <c r="E82">
         <v>415.8227848101265</v>
@@ -1998,10 +1998,10 @@
         <v>15</v>
       </c>
       <c r="C83">
-        <v>259.2941009617541</v>
+        <v>277.5084182176071</v>
       </c>
       <c r="D83">
-        <v>132.1090083369965</v>
+        <v>768.5081258439747</v>
       </c>
       <c r="E83">
         <v>415.8227848101265</v>
@@ -2015,10 +2015,10 @@
         <v>16</v>
       </c>
       <c r="C84">
-        <v>502.7739086982062</v>
+        <v>493.9597825494545</v>
       </c>
       <c r="D84">
-        <v>462.8158329836863</v>
+        <v>-101.4632141638915</v>
       </c>
       <c r="E84">
         <v>415.8227848101265</v>
@@ -2032,10 +2032,10 @@
         <v>17</v>
       </c>
       <c r="C85">
-        <v>255.4746822173769</v>
+        <v>283.6725836213323</v>
       </c>
       <c r="D85">
-        <v>421.6679792258033</v>
+        <v>730.8483803787858</v>
       </c>
       <c r="E85">
         <v>415.8227848101265</v>
@@ -2049,10 +2049,10 @@
         <v>18</v>
       </c>
       <c r="C86">
-        <v>263.9891446586162</v>
+        <v>277.7153519990485</v>
       </c>
       <c r="D86">
-        <v>485.6757517380658</v>
+        <v>228.9412795734963</v>
       </c>
       <c r="E86">
         <v>415.8227848101265</v>
@@ -2066,10 +2066,10 @@
         <v>19</v>
       </c>
       <c r="C87">
-        <v>525.9312526416982</v>
+        <v>503.5169148471517</v>
       </c>
       <c r="D87">
-        <v>-127.4780690738459</v>
+        <v>-101.4632141638915</v>
       </c>
       <c r="E87">
         <v>415.8227848101265</v>
@@ -2083,10 +2083,10 @@
         <v>20</v>
       </c>
       <c r="C88">
-        <v>924.7137199923684</v>
+        <v>1014.371443056149</v>
       </c>
       <c r="D88">
-        <v>725.9588977563214</v>
+        <v>-337.2813234195955</v>
       </c>
       <c r="E88">
         <v>415.8227848101265</v>
@@ -2100,10 +2100,10 @@
         <v>21</v>
       </c>
       <c r="C89">
-        <v>549.6600251282115</v>
+        <v>594.1660478428839</v>
       </c>
       <c r="D89">
-        <v>805.2574159242911</v>
+        <v>730.8483803787858</v>
       </c>
       <c r="E89">
         <v>415.8227848101265</v>
@@ -2117,10 +2117,10 @@
         <v>22</v>
       </c>
       <c r="C90">
-        <v>18.00200323515582</v>
+        <v>-24.42327019110512</v>
       </c>
       <c r="D90">
-        <v>776.4539182937727</v>
+        <v>750.8508092888678</v>
       </c>
       <c r="E90">
         <v>415.8227848101265</v>
@@ -2134,10 +2134,10 @@
         <v>23</v>
       </c>
       <c r="C91">
-        <v>185.5129914468923</v>
+        <v>298.0182551823132</v>
       </c>
       <c r="D91">
-        <v>725.9588977563214</v>
+        <v>768.5081258439747</v>
       </c>
       <c r="E91">
         <v>415.8227848101265</v>
@@ -2151,10 +2151,10 @@
         <v>24</v>
       </c>
       <c r="C92">
-        <v>785.2005964713633</v>
+        <v>702.4438227375973</v>
       </c>
       <c r="D92">
-        <v>-305.2774371634642</v>
+        <v>-337.2813234195955</v>
       </c>
       <c r="E92">
         <v>415.8227848101265</v>
@@ -2168,10 +2168,10 @@
         <v>25</v>
       </c>
       <c r="C93">
-        <v>320.2864460976322</v>
+        <v>382.0132293510913</v>
       </c>
       <c r="D93">
-        <v>36.09734956860268</v>
+        <v>196.1167808492591</v>
       </c>
       <c r="E93">
         <v>415.8227848101265</v>
@@ -2185,10 +2185,10 @@
         <v>26</v>
       </c>
       <c r="C94">
-        <v>375.5007485266282</v>
+        <v>370.4912459696163</v>
       </c>
       <c r="D94">
-        <v>809.0396933909246</v>
+        <v>768.5081258439747</v>
       </c>
       <c r="E94">
         <v>415.8227848101265</v>
@@ -2202,10 +2202,10 @@
         <v>27</v>
       </c>
       <c r="C95">
-        <v>250.1752571782094</v>
+        <v>306.9214401773617</v>
       </c>
       <c r="D95">
-        <v>-127.4780690738459</v>
+        <v>807.7466070775456</v>
       </c>
       <c r="E95">
         <v>415.8227848101265</v>
@@ -2219,10 +2219,10 @@
         <v>28</v>
       </c>
       <c r="C96">
-        <v>174.392106169829</v>
+        <v>170.1144232261399</v>
       </c>
       <c r="D96">
-        <v>805.2574159242911</v>
+        <v>824.0025493028821</v>
       </c>
       <c r="E96">
         <v>415.8227848101265</v>
@@ -2236,10 +2236,10 @@
         <v>29</v>
       </c>
       <c r="C97">
-        <v>369.9624337044953</v>
+        <v>402.4561920715051</v>
       </c>
       <c r="D97">
-        <v>-410.4330634336097</v>
+        <v>213.1855201858624</v>
       </c>
       <c r="E97">
         <v>415.8227848101265</v>
@@ -2253,10 +2253,10 @@
         <v>30</v>
       </c>
       <c r="C98">
-        <v>678.9538641062903</v>
+        <v>630.0261221278133</v>
       </c>
       <c r="D98">
-        <v>809.0396933909246</v>
+        <v>730.8483803787858</v>
       </c>
       <c r="E98">
         <v>415.8227848101265</v>
@@ -2270,10 +2270,10 @@
         <v>31</v>
       </c>
       <c r="C99">
-        <v>165.2387361028181</v>
+        <v>217.0201258821586</v>
       </c>
       <c r="D99">
-        <v>485.6757517380658</v>
+        <v>70.04086529480251</v>
       </c>
       <c r="E99">
         <v>415.8227848101265</v>
@@ -2287,10 +2287,10 @@
         <v>32</v>
       </c>
       <c r="C100">
-        <v>538.9746148486798</v>
+        <v>506.6484195219591</v>
       </c>
       <c r="D100">
-        <v>805.2574159242911</v>
+        <v>824.0025493028821</v>
       </c>
       <c r="E100">
         <v>415.8227848101265</v>
@@ -2304,10 +2304,10 @@
         <v>33</v>
       </c>
       <c r="C101">
-        <v>522.2028806532558</v>
+        <v>508.8149952395964</v>
       </c>
       <c r="D101">
-        <v>725.9588977563214</v>
+        <v>418.0103922251026</v>
       </c>
       <c r="E101">
         <v>415.8227848101265</v>
@@ -2321,10 +2321,10 @@
         <v>34</v>
       </c>
       <c r="C102">
-        <v>398.3953258587566</v>
+        <v>444.1343712007306</v>
       </c>
       <c r="D102">
-        <v>-410.4330634336097</v>
+        <v>-490.8999774490255</v>
       </c>
       <c r="E102">
         <v>415.8227848101265</v>
@@ -2338,10 +2338,10 @@
         <v>35</v>
       </c>
       <c r="C103">
-        <v>417.5424808671871</v>
+        <v>470.5606819173645</v>
       </c>
       <c r="D103">
-        <v>110.7730841662423</v>
+        <v>768.5081258439747</v>
       </c>
       <c r="E103">
         <v>415.8227848101265</v>
@@ -2355,10 +2355,10 @@
         <v>36</v>
       </c>
       <c r="C104">
-        <v>602.3683670789845</v>
+        <v>587.7461791739596</v>
       </c>
       <c r="D104">
-        <v>334.8002879591612</v>
+        <v>-490.8999774490255</v>
       </c>
       <c r="E104">
         <v>415.8227848101265</v>
@@ -2372,10 +2372,10 @@
         <v>37</v>
       </c>
       <c r="C105">
-        <v>221.9287793811008</v>
+        <v>202.2821815858888</v>
       </c>
       <c r="D105">
-        <v>725.9588977563214</v>
+        <v>807.7466070775456</v>
       </c>
       <c r="E105">
         <v>415.8227848101265</v>
@@ -2389,10 +2389,10 @@
         <v>38</v>
       </c>
       <c r="C106">
-        <v>67.19614062604683</v>
+        <v>-3.381657378155029</v>
       </c>
       <c r="D106">
-        <v>-127.4780690738459</v>
+        <v>196.1167808492591</v>
       </c>
       <c r="E106">
         <v>415.8227848101265</v>
@@ -2406,10 +2406,10 @@
         <v>39</v>
       </c>
       <c r="C107">
-        <v>583.8317545609416</v>
+        <v>645.131809014507</v>
       </c>
       <c r="D107">
-        <v>878.8663543133929</v>
+        <v>768.5081258439747</v>
       </c>
       <c r="E107">
         <v>415.8227848101265</v>
@@ -2423,10 +2423,10 @@
         <v>40</v>
       </c>
       <c r="C108">
-        <v>744.917923522343</v>
+        <v>785.7271569760072</v>
       </c>
       <c r="D108">
-        <v>36.09734956860268</v>
+        <v>-337.2813234195955</v>
       </c>
       <c r="E108">
         <v>415.8227848101265</v>
@@ -2440,10 +2440,10 @@
         <v>41</v>
       </c>
       <c r="C109">
-        <v>686.4628764727668</v>
+        <v>568.1812544341756</v>
       </c>
       <c r="D109">
-        <v>-127.4780690738459</v>
+        <v>686.8430367766053</v>
       </c>
       <c r="E109">
         <v>415.8227848101265</v>
@@ -2457,10 +2457,10 @@
         <v>42</v>
       </c>
       <c r="C110">
-        <v>528.4892470192748</v>
+        <v>543.8687715469953</v>
       </c>
       <c r="D110">
-        <v>-410.4330634336097</v>
+        <v>213.1855201858624</v>
       </c>
       <c r="E110">
         <v>415.8227848101265</v>
@@ -2474,10 +2474,10 @@
         <v>43</v>
       </c>
       <c r="C111">
-        <v>163.0881199743495</v>
+        <v>119.3936615857558</v>
       </c>
       <c r="D111">
-        <v>776.4539182937727</v>
+        <v>750.8508092888678</v>
       </c>
       <c r="E111">
         <v>415.8227848101265</v>
@@ -2491,10 +2491,10 @@
         <v>44</v>
       </c>
       <c r="C112">
-        <v>-196.4099612195218</v>
+        <v>-186.3125410670749</v>
       </c>
       <c r="D112">
-        <v>334.8002879591612</v>
+        <v>-490.8999774490255</v>
       </c>
       <c r="E112">
         <v>415.8227848101265</v>
@@ -2508,10 +2508,10 @@
         <v>45</v>
       </c>
       <c r="C113">
-        <v>347.5866067330397</v>
+        <v>249.7699127540864</v>
       </c>
       <c r="D113">
-        <v>-410.4330634336097</v>
+        <v>768.5081258439747</v>
       </c>
       <c r="E113">
         <v>415.8227848101265</v>
@@ -2525,10 +2525,10 @@
         <v>46</v>
       </c>
       <c r="C114">
-        <v>250.1174191425221</v>
+        <v>232.9381306195902</v>
       </c>
       <c r="D114">
-        <v>725.9588977563214</v>
+        <v>730.8483803787858</v>
       </c>
       <c r="E114">
         <v>415.8227848101265</v>
@@ -2542,10 +2542,10 @@
         <v>47</v>
       </c>
       <c r="C115">
-        <v>550.7493871080856</v>
+        <v>679.8194440661227</v>
       </c>
       <c r="D115">
-        <v>805.2574159242911</v>
+        <v>768.5081258439747</v>
       </c>
       <c r="E115">
         <v>415.8227848101265</v>
@@ -2559,10 +2559,10 @@
         <v>48</v>
       </c>
       <c r="C116">
-        <v>840.7169496982883</v>
+        <v>886.6551621114459</v>
       </c>
       <c r="D116">
-        <v>805.2574159242911</v>
+        <v>768.5081258439747</v>
       </c>
       <c r="E116">
         <v>415.8227848101265</v>
@@ -2576,10 +2576,10 @@
         <v>49</v>
       </c>
       <c r="C117">
-        <v>118.9773350898326</v>
+        <v>107.1607739056802</v>
       </c>
       <c r="D117">
-        <v>809.0396933909246</v>
+        <v>730.8483803787858</v>
       </c>
       <c r="E117">
         <v>415.8227848101265</v>
@@ -2593,10 +2593,10 @@
         <v>50</v>
       </c>
       <c r="C118">
-        <v>483.204626412183</v>
+        <v>487.6497060574087</v>
       </c>
       <c r="D118">
-        <v>725.9588977563214</v>
+        <v>730.8483803787858</v>
       </c>
       <c r="E118">
         <v>415.8227848101265</v>
@@ -2610,10 +2610,10 @@
         <v>51</v>
       </c>
       <c r="C119">
-        <v>454.5114282279257</v>
+        <v>504.3479005660367</v>
       </c>
       <c r="D119">
-        <v>110.7730841662423</v>
+        <v>768.5081258439747</v>
       </c>
       <c r="E119">
         <v>415.8227848101265</v>
@@ -2627,10 +2627,10 @@
         <v>52</v>
       </c>
       <c r="C120">
-        <v>228.9859293513455</v>
+        <v>261.9829231247909</v>
       </c>
       <c r="D120">
-        <v>485.6757517380658</v>
+        <v>635.6368187667953</v>
       </c>
       <c r="E120">
         <v>415.8227848101265</v>
@@ -2644,10 +2644,10 @@
         <v>53</v>
       </c>
       <c r="C121">
-        <v>440.878940215116</v>
+        <v>461.2308704758043</v>
       </c>
       <c r="D121">
-        <v>110.7730841662423</v>
+        <v>730.8483803787858</v>
       </c>
       <c r="E121">
         <v>415.8227848101265</v>
@@ -2661,10 +2661,10 @@
         <v>54</v>
       </c>
       <c r="C122">
-        <v>775.8144115445351</v>
+        <v>749.5654202160745</v>
       </c>
       <c r="D122">
-        <v>725.9588977563214</v>
+        <v>768.5081258439747</v>
       </c>
       <c r="E122">
         <v>415.8227848101265</v>
@@ -2678,10 +2678,10 @@
         <v>55</v>
       </c>
       <c r="C123">
-        <v>372.8789461619648</v>
+        <v>407.5003542329896</v>
       </c>
       <c r="D123">
-        <v>857.5304301426386</v>
+        <v>807.7466070775456</v>
       </c>
       <c r="E123">
         <v>415.8227848101265</v>
@@ -2695,10 +2695,10 @@
         <v>56</v>
       </c>
       <c r="C124">
-        <v>245.6842947258116</v>
+        <v>239.4512756793745</v>
       </c>
       <c r="D124">
-        <v>36.09734956860268</v>
+        <v>228.9412795734963</v>
       </c>
       <c r="E124">
         <v>415.8227848101265</v>
@@ -2712,10 +2712,10 @@
         <v>57</v>
       </c>
       <c r="C125">
-        <v>405.366063189692</v>
+        <v>435.800086489314</v>
       </c>
       <c r="D125">
-        <v>110.7730841662423</v>
+        <v>824.0025493028821</v>
       </c>
       <c r="E125">
         <v>415.8227848101265</v>
@@ -2729,10 +2729,10 @@
         <v>58</v>
       </c>
       <c r="C126">
-        <v>190.2648248196696</v>
+        <v>129.8435349323045</v>
       </c>
       <c r="D126">
-        <v>-154.4019733845596</v>
+        <v>768.5081258439747</v>
       </c>
       <c r="E126">
         <v>415.8227848101265</v>
@@ -2746,10 +2746,10 @@
         <v>59</v>
       </c>
       <c r="C127">
-        <v>463.0618977981412</v>
+        <v>434.412592968021</v>
       </c>
       <c r="D127">
-        <v>-127.4780690738459</v>
+        <v>-101.4632141638915</v>
       </c>
       <c r="E127">
         <v>415.8227848101265</v>
@@ -2763,10 +2763,10 @@
         <v>60</v>
       </c>
       <c r="C128">
-        <v>541.7136524861749</v>
+        <v>432.1484663884452</v>
       </c>
       <c r="D128">
-        <v>805.2574159242911</v>
+        <v>142.7769704223736</v>
       </c>
       <c r="E128">
         <v>415.8227848101265</v>
@@ -2780,10 +2780,10 @@
         <v>61</v>
       </c>
       <c r="C129">
-        <v>186.1445961032942</v>
+        <v>181.025533179861</v>
       </c>
       <c r="D129">
-        <v>805.2574159242911</v>
+        <v>418.0103922251026</v>
       </c>
       <c r="E129">
         <v>415.8227848101265</v>
@@ -2797,10 +2797,10 @@
         <v>62</v>
       </c>
       <c r="C130">
-        <v>509.8735200770845</v>
+        <v>503.1826626458898</v>
       </c>
       <c r="D130">
-        <v>805.2574159242911</v>
+        <v>824.0025493028821</v>
       </c>
       <c r="E130">
         <v>415.8227848101265</v>
@@ -2814,10 +2814,10 @@
         <v>63</v>
       </c>
       <c r="C131">
-        <v>87.80140705968017</v>
+        <v>48.71569018004206</v>
       </c>
       <c r="D131">
-        <v>776.4539182937727</v>
+        <v>750.8508092888678</v>
       </c>
       <c r="E131">
         <v>415.8227848101265</v>
@@ -2831,10 +2831,10 @@
         <v>64</v>
       </c>
       <c r="C132">
-        <v>715.3559330611236</v>
+        <v>784.864713110567</v>
       </c>
       <c r="D132">
-        <v>805.2574159242911</v>
+        <v>142.7769704223736</v>
       </c>
       <c r="E132">
         <v>415.8227848101265</v>
@@ -2848,10 +2848,10 @@
         <v>65</v>
       </c>
       <c r="C133">
-        <v>410.4034058259076</v>
+        <v>431.5835156856465</v>
       </c>
       <c r="D133">
-        <v>132.1090083369965</v>
+        <v>196.1167808492591</v>
       </c>
       <c r="E133">
         <v>415.8227848101265</v>
@@ -2865,10 +2865,10 @@
         <v>66</v>
       </c>
       <c r="C134">
-        <v>942.9450073896332</v>
+        <v>935.8100626266498</v>
       </c>
       <c r="D134">
-        <v>132.1090083369965</v>
+        <v>768.5081258439747</v>
       </c>
       <c r="E134">
         <v>415.8227848101265</v>
@@ -2882,10 +2882,10 @@
         <v>67</v>
       </c>
       <c r="C135">
-        <v>505.1514450773504</v>
+        <v>575.5812609228841</v>
       </c>
       <c r="D135">
-        <v>809.0396933909246</v>
+        <v>768.5081258439747</v>
       </c>
       <c r="E135">
         <v>415.8227848101265</v>
@@ -2899,10 +2899,10 @@
         <v>68</v>
       </c>
       <c r="C136">
-        <v>326.4587144064604</v>
+        <v>350.0486205158398</v>
       </c>
       <c r="D136">
-        <v>725.9588977563214</v>
+        <v>730.8483803787858</v>
       </c>
       <c r="E136">
         <v>415.8227848101265</v>
@@ -2916,10 +2916,10 @@
         <v>69</v>
       </c>
       <c r="C137">
-        <v>550.6959223644679</v>
+        <v>513.3507121884413</v>
       </c>
       <c r="D137">
-        <v>725.9588977563214</v>
+        <v>70.04086529480251</v>
       </c>
       <c r="E137">
         <v>415.8227848101265</v>
@@ -2933,10 +2933,10 @@
         <v>70</v>
       </c>
       <c r="C138">
-        <v>463.0675589779088</v>
+        <v>362.06906179494</v>
       </c>
       <c r="D138">
-        <v>725.9588977563214</v>
+        <v>768.5081258439747</v>
       </c>
       <c r="E138">
         <v>415.8227848101265</v>
@@ -2950,10 +2950,10 @@
         <v>71</v>
       </c>
       <c r="C139">
-        <v>329.5861719222337</v>
+        <v>219.8684085251463</v>
       </c>
       <c r="D139">
-        <v>485.6757517380658</v>
+        <v>730.8483803787858</v>
       </c>
       <c r="E139">
         <v>415.8227848101265</v>
@@ -2967,10 +2967,10 @@
         <v>72</v>
       </c>
       <c r="C140">
-        <v>353.3779160027677</v>
+        <v>303.571267857835</v>
       </c>
       <c r="D140">
-        <v>-127.4780690738459</v>
+        <v>-101.4632141638915</v>
       </c>
       <c r="E140">
         <v>415.8227848101265</v>
@@ -2984,10 +2984,10 @@
         <v>73</v>
       </c>
       <c r="C141">
-        <v>280.5380688520415</v>
+        <v>256.9580294001493</v>
       </c>
       <c r="D141">
-        <v>-410.4330634336097</v>
+        <v>213.1855201858624</v>
       </c>
       <c r="E141">
         <v>415.8227848101265</v>

--- a/adresso_False.xlsx
+++ b/adresso_False.xlsx
@@ -621,13 +621,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>671.6600882773695</v>
+        <v>21.74894897842811</v>
       </c>
       <c r="D2">
-        <v>824.7059314184015</v>
+        <v>-3.77513732088922</v>
       </c>
       <c r="E2">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -638,13 +638,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>241.813104453222</v>
+        <v>6.88474892716668</v>
       </c>
       <c r="D3">
-        <v>110.7730841662423</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E3">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -655,13 +655,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>266.6677601639852</v>
+        <v>8.496141136153311</v>
       </c>
       <c r="D4">
-        <v>-11.90847981559413</v>
+        <v>15.01688819873658</v>
       </c>
       <c r="E4">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,13 +672,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>271.8751614689164</v>
+        <v>11.72301999172652</v>
       </c>
       <c r="D5">
-        <v>-98.70689860116244</v>
+        <v>-5.108632581561353</v>
       </c>
       <c r="E5">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -689,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>377.9321997574473</v>
+        <v>10.73092572769902</v>
       </c>
       <c r="D6">
-        <v>136.3761931711474</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E6">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -706,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>575.4944687348897</v>
+        <v>16.74167174908338</v>
       </c>
       <c r="D7">
-        <v>25.42938748322563</v>
+        <v>25.88179727645909</v>
       </c>
       <c r="E7">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -723,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>690.7018690190632</v>
+        <v>23.71535661676596</v>
       </c>
       <c r="D8">
-        <v>782.8546955449992</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E8">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -740,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>49.74944968040104</v>
+        <v>3.757674662072313</v>
       </c>
       <c r="D9">
-        <v>-98.70689860116244</v>
+        <v>15.01688819873658</v>
       </c>
       <c r="E9">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -757,13 +757,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>412.9740623182878</v>
+        <v>13.90776986019797</v>
       </c>
       <c r="D10">
-        <v>824.7059314184015</v>
+        <v>25.88179727645909</v>
       </c>
       <c r="E10">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -774,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>290.6417678669075</v>
+        <v>8.10553408320712</v>
       </c>
       <c r="D11">
-        <v>-625.3162997247771</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E11">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -791,13 +791,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>669.0552124088285</v>
+        <v>25.62854818771257</v>
       </c>
       <c r="D12">
-        <v>773.7107280432473</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E12">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -808,13 +808,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>515.8195236661149</v>
+        <v>13.96685457218259</v>
       </c>
       <c r="D13">
-        <v>693.95501150019</v>
+        <v>23.60596536491198</v>
       </c>
       <c r="E13">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -825,13 +825,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>484.4192368839809</v>
+        <v>14.84666259159523</v>
       </c>
       <c r="D14">
-        <v>302.79640170303</v>
+        <v>-3.77513732088922</v>
       </c>
       <c r="E14">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -842,13 +842,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>341.2968747076939</v>
+        <v>8.356825157121516</v>
       </c>
       <c r="D15">
-        <v>773.7107280432473</v>
+        <v>0.8476462494408527</v>
       </c>
       <c r="E15">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -859,13 +859,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>116.7262941530832</v>
+        <v>10.3891693243574</v>
       </c>
       <c r="D16">
-        <v>773.7107280432473</v>
+        <v>-0.1480302118610083</v>
       </c>
       <c r="E16">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -876,13 +876,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>550.9552241222821</v>
+        <v>19.00871421548122</v>
       </c>
       <c r="D17">
-        <v>520.4228282447226</v>
+        <v>15.42719443278954</v>
       </c>
       <c r="E17">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -893,13 +893,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>937.3852653376231</v>
+        <v>29.51672583901409</v>
       </c>
       <c r="D18">
-        <v>782.8546955449992</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E18">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -910,13 +910,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>472.0353593312323</v>
+        <v>18.36490609525237</v>
       </c>
       <c r="D19">
-        <v>-129.2560627547422</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E19">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -927,13 +927,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>57.6621134108142</v>
+        <v>3.454357206791773</v>
       </c>
       <c r="D20">
-        <v>-11.90847981559413</v>
+        <v>25.88179727645909</v>
       </c>
       <c r="E20">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -944,13 +944,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>359.3751390314144</v>
+        <v>9.049686344191342</v>
       </c>
       <c r="D21">
-        <v>-11.90847981559413</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E21">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -961,13 +961,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>120.5966930176395</v>
+        <v>12.54969832315814</v>
       </c>
       <c r="D22">
-        <v>782.8546955449992</v>
+        <v>18.98318179458191</v>
       </c>
       <c r="E22">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -978,13 +978,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>373.9261452462205</v>
+        <v>12.17186936446734</v>
       </c>
       <c r="D23">
-        <v>773.7107280432473</v>
+        <v>-0.1480302118610083</v>
       </c>
       <c r="E23">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -995,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>330.1931168576221</v>
+        <v>9.758869362811708</v>
       </c>
       <c r="D24">
-        <v>-11.90847981559413</v>
+        <v>0.8476462494408527</v>
       </c>
       <c r="E24">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1012,13 +1012,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>463.804099587642</v>
+        <v>11.31967851434878</v>
       </c>
       <c r="D25">
-        <v>743.7388345652832</v>
+        <v>15.42719443278954</v>
       </c>
       <c r="E25">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1029,13 +1029,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>134.6662776081809</v>
+        <v>6.208207504932364</v>
       </c>
       <c r="D26">
-        <v>302.79640170303</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E26">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1046,13 +1046,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>327.1451812766434</v>
+        <v>11.81615576348764</v>
       </c>
       <c r="D27">
-        <v>-129.2560627547422</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E27">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1063,13 +1063,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>622.4398090857015</v>
+        <v>22.17181962574078</v>
       </c>
       <c r="D28">
-        <v>302.79640170303</v>
+        <v>18.98318179458191</v>
       </c>
       <c r="E28">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1080,13 +1080,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>216.7852470954371</v>
+        <v>13.97220526414957</v>
       </c>
       <c r="D29">
-        <v>-625.3162997247771</v>
+        <v>15.01688819873658</v>
       </c>
       <c r="E29">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1097,13 +1097,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>659.3664341360096</v>
+        <v>21.1052214733927</v>
       </c>
       <c r="D30">
-        <v>824.7059314184015</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E30">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1114,13 +1114,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>498.5616808890492</v>
+        <v>17.79229482197492</v>
       </c>
       <c r="D31">
-        <v>782.8546955449992</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E31">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1131,13 +1131,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>452.3416629257541</v>
+        <v>13.44232306335053</v>
       </c>
       <c r="D32">
-        <v>110.7730841662424</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E32">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1148,13 +1148,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>416.8187653760555</v>
+        <v>14.19438254442271</v>
       </c>
       <c r="D33">
-        <v>824.7059314184015</v>
+        <v>3.692436138874744</v>
       </c>
       <c r="E33">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1165,13 +1165,13 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>509.4638859955967</v>
+        <v>21.52717785835192</v>
       </c>
       <c r="D34">
-        <v>824.7059314184015</v>
+        <v>11.16000959863871</v>
       </c>
       <c r="E34">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1182,13 +1182,13 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>85.34021436212458</v>
+        <v>2.263660412514767</v>
       </c>
       <c r="D35">
-        <v>-625.3162997247771</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E35">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1199,13 +1199,13 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>82.942905613177</v>
+        <v>-5.249088338932767</v>
       </c>
       <c r="D36">
-        <v>-11.90847981559413</v>
+        <v>-3.77513732088922</v>
       </c>
       <c r="E36">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1216,13 +1216,13 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>567.7534108253889</v>
+        <v>17.66838685446252</v>
       </c>
       <c r="D37">
-        <v>782.8546955449992</v>
+        <v>29.29554514377976</v>
       </c>
       <c r="E37">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1233,13 +1233,13 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>529.6232219979123</v>
+        <v>18.68971977923614</v>
       </c>
       <c r="D38">
-        <v>520.4228282447226</v>
+        <v>15.01688819873658</v>
       </c>
       <c r="E38">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1250,13 +1250,13 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>726.9959758417</v>
+        <v>24.77211534334371</v>
       </c>
       <c r="D39">
-        <v>702.8449799046709</v>
+        <v>-3.77513732088922</v>
       </c>
       <c r="E39">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1267,13 +1267,13 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>468.5865344344837</v>
+        <v>16.37630118460945</v>
       </c>
       <c r="D40">
-        <v>110.7730841662424</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E40">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1284,13 +1284,13 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>314.6779936940829</v>
+        <v>9.043968336000125</v>
       </c>
       <c r="D41">
-        <v>136.3761931711474</v>
+        <v>25.88179727645909</v>
       </c>
       <c r="E41">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1301,13 +1301,13 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>-124.2446808111768</v>
+        <v>-8.444467130364918</v>
       </c>
       <c r="D42">
-        <v>-577.3104703405802</v>
+        <v>11.16000959863871</v>
       </c>
       <c r="E42">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1318,13 +1318,13 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>398.1426986080666</v>
+        <v>10.98944998469823</v>
       </c>
       <c r="D43">
-        <v>782.8546955449992</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E43">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1335,13 +1335,13 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>322.8974710716063</v>
+        <v>12.49865023138316</v>
       </c>
       <c r="D44">
-        <v>773.7107280432473</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E44">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1352,13 +1352,13 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>848.9848684317249</v>
+        <v>26.50660912891038</v>
       </c>
       <c r="D45">
-        <v>782.8546955449992</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E45">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1369,13 +1369,13 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>709.5319716544446</v>
+        <v>19.71777876282827</v>
       </c>
       <c r="D46">
-        <v>782.8546955449992</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E46">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1386,13 +1386,13 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>261.2017101165873</v>
+        <v>8.130234035396423</v>
       </c>
       <c r="D47">
-        <v>302.79640170303</v>
+        <v>18.98318179458191</v>
       </c>
       <c r="E47">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1403,13 +1403,13 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>743.5127353353807</v>
+        <v>23.57967946256989</v>
       </c>
       <c r="D48">
-        <v>345.4682500445383</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E48">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1420,13 +1420,13 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>239.4458376799539</v>
+        <v>8.003251929130467</v>
       </c>
       <c r="D49">
-        <v>-11.90847981559413</v>
+        <v>3.692436138874744</v>
       </c>
       <c r="E49">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1437,13 +1437,13 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>358.0735084734831</v>
+        <v>12.10102796341123</v>
       </c>
       <c r="D50">
-        <v>302.79640170303</v>
+        <v>-0.1480302118610083</v>
       </c>
       <c r="E50">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1454,13 +1454,13 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>457.5845999048642</v>
+        <v>10.97147942111816</v>
       </c>
       <c r="D51">
-        <v>-98.70689860116244</v>
+        <v>3.692436138874744</v>
       </c>
       <c r="E51">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1471,13 +1471,13 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>809.4448857620646</v>
+        <v>23.28900123720851</v>
       </c>
       <c r="D52">
-        <v>782.8546955449992</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E52">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1488,13 +1488,13 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>552.9346769345844</v>
+        <v>15.44476359993828</v>
       </c>
       <c r="D53">
-        <v>743.7388345652832</v>
+        <v>28.58434767142129</v>
       </c>
       <c r="E53">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1505,13 +1505,13 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>378.3978961396531</v>
+        <v>9.83494339539558</v>
       </c>
       <c r="D54">
-        <v>693.95501150019</v>
+        <v>15.01688819873658</v>
       </c>
       <c r="E54">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1522,13 +1522,13 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>342.0914007400721</v>
+        <v>11.10887884251262</v>
       </c>
       <c r="D55">
-        <v>-11.90847981559413</v>
+        <v>3.692436138874744</v>
       </c>
       <c r="E55">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1539,13 +1539,13 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>355.0406568462288</v>
+        <v>10.8609135119548</v>
       </c>
       <c r="D56">
-        <v>782.8546955449992</v>
+        <v>29.29554514377976</v>
       </c>
       <c r="E56">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1556,13 +1556,13 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>432.5059092223445</v>
+        <v>11.48720712853293</v>
       </c>
       <c r="D57">
-        <v>743.7388345652832</v>
+        <v>15.42719443278954</v>
       </c>
       <c r="E57">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1573,13 +1573,13 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>394.7522673764636</v>
+        <v>13.42050761593462</v>
       </c>
       <c r="D58">
-        <v>-129.2560627547422</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E58">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1590,13 +1590,13 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>75.82687623065803</v>
+        <v>4.050990610944965</v>
       </c>
       <c r="D59">
-        <v>782.8546955449992</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E59">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1607,13 +1607,13 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>629.0469875702842</v>
+        <v>20.85109348148711</v>
       </c>
       <c r="D60">
-        <v>-98.70689860116244</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E60">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1624,13 +1624,13 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>121.4401489715508</v>
+        <v>5.008099806235412</v>
       </c>
       <c r="D61">
-        <v>693.95501150019</v>
+        <v>25.88179727645909</v>
       </c>
       <c r="E61">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1641,13 +1641,13 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>676.5453941564485</v>
+        <v>22.03567261376899</v>
       </c>
       <c r="D62">
-        <v>302.79640170303</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E62">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1658,13 +1658,13 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>617.7053963970295</v>
+        <v>18.02056924091808</v>
       </c>
       <c r="D63">
-        <v>-625.3162997247771</v>
+        <v>23.60596536491198</v>
       </c>
       <c r="E63">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1675,13 +1675,13 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>883.1973229543075</v>
+        <v>31.15617461567899</v>
       </c>
       <c r="D64">
-        <v>782.8546955449992</v>
+        <v>23.60596536491198</v>
       </c>
       <c r="E64">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1692,13 +1692,13 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>559.2840559774419</v>
+        <v>19.83468692796034</v>
       </c>
       <c r="D65">
-        <v>782.8546955449992</v>
+        <v>18.98318179458191</v>
       </c>
       <c r="E65">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1709,13 +1709,13 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>111.5243250804958</v>
+        <v>5.07934215318241</v>
       </c>
       <c r="D66">
-        <v>-98.70689860116244</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E66">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1726,13 +1726,13 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>514.8573984580061</v>
+        <v>17.9758596128096</v>
       </c>
       <c r="D67">
-        <v>345.4682500445383</v>
+        <v>6.89282476448787</v>
       </c>
       <c r="E67">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1743,13 +1743,13 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>359.4085272164039</v>
+        <v>15.65287554016425</v>
       </c>
       <c r="D68">
-        <v>782.8546955449992</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E68">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1760,13 +1760,13 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>232.3975842245915</v>
+        <v>5.13425757400509</v>
       </c>
       <c r="D69">
-        <v>345.4682500445383</v>
+        <v>-0.1480302118610083</v>
       </c>
       <c r="E69">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1777,13 +1777,13 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>324.6560098759213</v>
+        <v>9.198077153413374</v>
       </c>
       <c r="D70">
-        <v>302.79640170303</v>
+        <v>15.42719443278954</v>
       </c>
       <c r="E70">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1794,13 +1794,13 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>479.1504494261798</v>
+        <v>15.35195422906573</v>
       </c>
       <c r="D71">
-        <v>110.7730841662424</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E71">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1811,13 +1811,13 @@
         <v>4</v>
       </c>
       <c r="C72">
-        <v>466.7538368213793</v>
+        <v>13.74405713651741</v>
       </c>
       <c r="D72">
-        <v>-101.4632141638915</v>
+        <v>22.28517005910339</v>
       </c>
       <c r="E72">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1828,13 +1828,13 @@
         <v>5</v>
       </c>
       <c r="C73">
-        <v>250.8480576112669</v>
+        <v>5.095243832874342</v>
       </c>
       <c r="D73">
-        <v>213.1855201858624</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E73">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1845,13 +1845,13 @@
         <v>6</v>
       </c>
       <c r="C74">
-        <v>347.2213950526087</v>
+        <v>12.61146190376242</v>
       </c>
       <c r="D74">
-        <v>228.9412795734963</v>
+        <v>1.254044805074264</v>
       </c>
       <c r="E74">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1862,13 +1862,13 @@
         <v>7</v>
       </c>
       <c r="C75">
-        <v>333.9687206079759</v>
+        <v>8.542262086861943</v>
       </c>
       <c r="D75">
-        <v>70.04086529480251</v>
+        <v>2.2700411941578</v>
       </c>
       <c r="E75">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1879,13 +1879,13 @@
         <v>8</v>
       </c>
       <c r="C76">
-        <v>366.0862150309296</v>
+        <v>15.4256543726164</v>
       </c>
       <c r="D76">
-        <v>70.04086529480251</v>
+        <v>1.254044805074264</v>
       </c>
       <c r="E76">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1896,13 +1896,13 @@
         <v>9</v>
       </c>
       <c r="C77">
-        <v>552.6883758811697</v>
+        <v>23.14466991325982</v>
       </c>
       <c r="D77">
-        <v>750.8508092888678</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E77">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1913,13 +1913,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>447.7524694735342</v>
+        <v>12.24662448146055</v>
       </c>
       <c r="D78">
-        <v>70.04086529480251</v>
+        <v>21.61461244230826</v>
       </c>
       <c r="E78">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1930,13 +1930,13 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>214.6532021244438</v>
+        <v>6.418647971141232</v>
       </c>
       <c r="D79">
-        <v>228.9412795734963</v>
+        <v>17.56078684986496</v>
       </c>
       <c r="E79">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1947,13 +1947,13 @@
         <v>12</v>
       </c>
       <c r="C80">
-        <v>370.5350145087812</v>
+        <v>9.113944289171496</v>
       </c>
       <c r="D80">
-        <v>750.8508092888678</v>
+        <v>25.17059980410062</v>
       </c>
       <c r="E80">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1964,13 +1964,13 @@
         <v>13</v>
       </c>
       <c r="C81">
-        <v>273.6841914518037</v>
+        <v>5.177492566840055</v>
       </c>
       <c r="D81">
-        <v>70.04086529480251</v>
+        <v>0.4920475132616159</v>
       </c>
       <c r="E81">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1981,13 +1981,13 @@
         <v>14</v>
       </c>
       <c r="C82">
-        <v>745.3908964003026</v>
+        <v>24.88503893486043</v>
       </c>
       <c r="D82">
-        <v>70.04086529480251</v>
+        <v>25.17059980410062</v>
       </c>
       <c r="E82">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1998,13 +1998,13 @@
         <v>15</v>
       </c>
       <c r="C83">
-        <v>277.5084182176071</v>
+        <v>9.279798984800875</v>
       </c>
       <c r="D83">
-        <v>768.5081258439747</v>
+        <v>22.28517005910339</v>
       </c>
       <c r="E83">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2015,13 +2015,13 @@
         <v>16</v>
       </c>
       <c r="C84">
-        <v>493.9597825494545</v>
+        <v>17.03538515864814</v>
       </c>
       <c r="D84">
-        <v>-101.4632141638915</v>
+        <v>-5.553131001785397</v>
       </c>
       <c r="E84">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2032,13 +2032,13 @@
         <v>17</v>
       </c>
       <c r="C85">
-        <v>283.6725836213323</v>
+        <v>9.067671350920437</v>
       </c>
       <c r="D85">
-        <v>730.8483803787858</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E85">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2049,13 +2049,13 @@
         <v>18</v>
       </c>
       <c r="C86">
-        <v>277.7153519990485</v>
+        <v>4.437901677154134</v>
       </c>
       <c r="D86">
-        <v>228.9412795734963</v>
+        <v>23.96156410109122</v>
       </c>
       <c r="E86">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2066,13 +2066,13 @@
         <v>19</v>
       </c>
       <c r="C87">
-        <v>503.5169148471517</v>
+        <v>17.65360143531674</v>
       </c>
       <c r="D87">
-        <v>-101.4632141638915</v>
+        <v>0.4920475132616159</v>
       </c>
       <c r="E87">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2083,13 +2083,13 @@
         <v>20</v>
       </c>
       <c r="C88">
-        <v>1014.371443056149</v>
+        <v>28.67787837598552</v>
       </c>
       <c r="D88">
-        <v>-337.2813234195955</v>
+        <v>2.2700411941578</v>
       </c>
       <c r="E88">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2100,13 +2100,13 @@
         <v>21</v>
       </c>
       <c r="C89">
-        <v>594.1660478428839</v>
+        <v>12.76865288632257</v>
       </c>
       <c r="D89">
-        <v>730.8483803787858</v>
+        <v>25.17059980410062</v>
       </c>
       <c r="E89">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2117,13 +2117,13 @@
         <v>22</v>
       </c>
       <c r="C90">
-        <v>-24.42327019110512</v>
+        <v>-1.263304501725642</v>
       </c>
       <c r="D90">
-        <v>750.8508092888678</v>
+        <v>21.8279716840158</v>
       </c>
       <c r="E90">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2134,13 +2134,13 @@
         <v>23</v>
       </c>
       <c r="C91">
-        <v>298.0182551823132</v>
+        <v>9.070320954590755</v>
       </c>
       <c r="D91">
-        <v>768.5081258439747</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E91">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2151,13 +2151,13 @@
         <v>24</v>
       </c>
       <c r="C92">
-        <v>702.4438227375973</v>
+        <v>23.54145349398012</v>
       </c>
       <c r="D92">
-        <v>-337.2813234195955</v>
+        <v>21.61461244230826</v>
       </c>
       <c r="E92">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2168,13 +2168,13 @@
         <v>25</v>
       </c>
       <c r="C93">
-        <v>382.0132293510913</v>
+        <v>16.13328931091137</v>
       </c>
       <c r="D93">
-        <v>196.1167808492591</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E93">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2185,13 +2185,13 @@
         <v>26</v>
       </c>
       <c r="C94">
-        <v>370.4912459696163</v>
+        <v>12.01635086172852</v>
       </c>
       <c r="D94">
-        <v>768.5081258439747</v>
+        <v>21.61461244230826</v>
       </c>
       <c r="E94">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2202,13 +2202,13 @@
         <v>27</v>
       </c>
       <c r="C95">
-        <v>306.9214401773617</v>
+        <v>12.12757694350245</v>
       </c>
       <c r="D95">
-        <v>807.7466070775456</v>
+        <v>-1.428185662106255</v>
       </c>
       <c r="E95">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2219,13 +2219,13 @@
         <v>28</v>
       </c>
       <c r="C96">
-        <v>170.1144232261399</v>
+        <v>0.7141856553194459</v>
       </c>
       <c r="D96">
-        <v>824.0025493028821</v>
+        <v>25.17059980410062</v>
       </c>
       <c r="E96">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2236,13 +2236,13 @@
         <v>29</v>
       </c>
       <c r="C97">
-        <v>402.4561920715051</v>
+        <v>8.438892219621776</v>
       </c>
       <c r="D97">
-        <v>213.1855201858624</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E97">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2253,13 +2253,13 @@
         <v>30</v>
       </c>
       <c r="C98">
-        <v>630.0261221278133</v>
+        <v>24.47195280243703</v>
       </c>
       <c r="D98">
-        <v>730.8483803787858</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E98">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2270,13 +2270,13 @@
         <v>31</v>
       </c>
       <c r="C99">
-        <v>217.0201258821586</v>
+        <v>5.433657404332946</v>
       </c>
       <c r="D99">
-        <v>70.04086529480251</v>
+        <v>22.28517005910339</v>
       </c>
       <c r="E99">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2287,13 +2287,13 @@
         <v>32</v>
       </c>
       <c r="C100">
-        <v>506.6484195219591</v>
+        <v>17.08888131938609</v>
       </c>
       <c r="D100">
-        <v>824.0025493028821</v>
+        <v>25.17059980410062</v>
       </c>
       <c r="E100">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2304,13 +2304,13 @@
         <v>33</v>
       </c>
       <c r="C101">
-        <v>508.8149952395964</v>
+        <v>18.68614406566697</v>
       </c>
       <c r="D101">
-        <v>418.0103922251026</v>
+        <v>21.61461244230826</v>
       </c>
       <c r="E101">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2321,13 +2321,13 @@
         <v>34</v>
       </c>
       <c r="C102">
-        <v>444.1343712007306</v>
+        <v>17.90788446263251</v>
       </c>
       <c r="D102">
-        <v>-490.8999774490255</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E102">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2338,13 +2338,13 @@
         <v>35</v>
       </c>
       <c r="C103">
-        <v>470.5606819173645</v>
+        <v>9.663822585558648</v>
       </c>
       <c r="D103">
-        <v>768.5081258439747</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E103">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2355,13 +2355,13 @@
         <v>36</v>
       </c>
       <c r="C104">
-        <v>587.7461791739596</v>
+        <v>16.28077057205092</v>
       </c>
       <c r="D104">
-        <v>-490.8999774490255</v>
+        <v>11.16000959863871</v>
       </c>
       <c r="E104">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2372,13 +2372,13 @@
         <v>37</v>
       </c>
       <c r="C105">
-        <v>202.2821815858888</v>
+        <v>6.224967990047356</v>
       </c>
       <c r="D105">
-        <v>807.7466070775456</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E105">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2389,13 +2389,13 @@
         <v>38</v>
       </c>
       <c r="C106">
-        <v>-3.381657378155029</v>
+        <v>7.023154622976056</v>
       </c>
       <c r="D106">
-        <v>196.1167808492591</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E106">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2406,13 +2406,13 @@
         <v>39</v>
       </c>
       <c r="C107">
-        <v>645.131809014507</v>
+        <v>20.70251839272297</v>
       </c>
       <c r="D107">
-        <v>768.5081258439747</v>
+        <v>23.96156410109122</v>
       </c>
       <c r="E107">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2423,13 +2423,13 @@
         <v>40</v>
       </c>
       <c r="C108">
-        <v>785.7271569760072</v>
+        <v>22.00954908369738</v>
       </c>
       <c r="D108">
-        <v>-337.2813234195955</v>
+        <v>21.61461244230826</v>
       </c>
       <c r="E108">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2440,13 +2440,13 @@
         <v>41</v>
       </c>
       <c r="C109">
-        <v>568.1812544341756</v>
+        <v>20.86373193609403</v>
       </c>
       <c r="D109">
-        <v>686.8430367766053</v>
+        <v>22.28517005910339</v>
       </c>
       <c r="E109">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2457,13 +2457,13 @@
         <v>42</v>
       </c>
       <c r="C110">
-        <v>543.8687715469953</v>
+        <v>12.80998314989577</v>
       </c>
       <c r="D110">
-        <v>213.1855201858624</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E110">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2474,13 +2474,13 @@
         <v>43</v>
       </c>
       <c r="C111">
-        <v>119.3936615857558</v>
+        <v>3.356328392970866</v>
       </c>
       <c r="D111">
-        <v>750.8508092888678</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E111">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2491,13 +2491,13 @@
         <v>44</v>
       </c>
       <c r="C112">
-        <v>-186.3125410670749</v>
+        <v>-7.340587209398251</v>
       </c>
       <c r="D112">
-        <v>-490.8999774490255</v>
+        <v>11.16000959863871</v>
       </c>
       <c r="E112">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2508,13 +2508,13 @@
         <v>45</v>
       </c>
       <c r="C113">
-        <v>249.7699127540864</v>
+        <v>11.70582969687716</v>
       </c>
       <c r="D113">
-        <v>768.5081258439747</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E113">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2525,13 +2525,13 @@
         <v>46</v>
       </c>
       <c r="C114">
-        <v>232.9381306195902</v>
+        <v>10.33712533205137</v>
       </c>
       <c r="D114">
-        <v>730.8483803787858</v>
+        <v>-5.553131001785397</v>
       </c>
       <c r="E114">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2542,13 +2542,13 @@
         <v>47</v>
       </c>
       <c r="C115">
-        <v>679.8194440661227</v>
+        <v>11.96704433899431</v>
       </c>
       <c r="D115">
-        <v>768.5081258439747</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E115">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2559,13 +2559,13 @@
         <v>48</v>
       </c>
       <c r="C116">
-        <v>886.6551621114459</v>
+        <v>24.62787445769962</v>
       </c>
       <c r="D116">
-        <v>768.5081258439747</v>
+        <v>1.558843721799326</v>
       </c>
       <c r="E116">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2576,13 +2576,13 @@
         <v>49</v>
       </c>
       <c r="C117">
-        <v>107.1607739056802</v>
+        <v>4.796444751980727</v>
       </c>
       <c r="D117">
-        <v>730.8483803787858</v>
+        <v>0.4920475132616159</v>
       </c>
       <c r="E117">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2593,13 +2593,13 @@
         <v>50</v>
       </c>
       <c r="C118">
-        <v>487.6497060574087</v>
+        <v>18.49061471670447</v>
       </c>
       <c r="D118">
-        <v>730.8483803787858</v>
+        <v>1.254044805074264</v>
       </c>
       <c r="E118">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2610,13 +2610,13 @@
         <v>51</v>
       </c>
       <c r="C119">
-        <v>504.3479005660367</v>
+        <v>12.08801170715217</v>
       </c>
       <c r="D119">
-        <v>768.5081258439747</v>
+        <v>21.61461244230826</v>
       </c>
       <c r="E119">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2627,13 +2627,13 @@
         <v>52</v>
       </c>
       <c r="C120">
-        <v>261.9829231247909</v>
+        <v>8.443584625185874</v>
       </c>
       <c r="D120">
-        <v>635.6368187667953</v>
+        <v>-5.553131001785397</v>
       </c>
       <c r="E120">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2644,13 +2644,13 @@
         <v>53</v>
       </c>
       <c r="C121">
-        <v>461.2308704758043</v>
+        <v>23.91682815950195</v>
       </c>
       <c r="D121">
-        <v>730.8483803787858</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E121">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2661,13 +2661,13 @@
         <v>54</v>
       </c>
       <c r="C122">
-        <v>749.5654202160745</v>
+        <v>27.06480753359593</v>
       </c>
       <c r="D122">
-        <v>768.5081258439747</v>
+        <v>-1.428185662106255</v>
       </c>
       <c r="E122">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2678,13 +2678,13 @@
         <v>55</v>
       </c>
       <c r="C123">
-        <v>407.5003542329896</v>
+        <v>24.46873947650288</v>
       </c>
       <c r="D123">
-        <v>807.7466070775456</v>
+        <v>17.56078684986496</v>
       </c>
       <c r="E123">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2695,13 +2695,13 @@
         <v>56</v>
       </c>
       <c r="C124">
-        <v>239.4512756793745</v>
+        <v>11.31780897216858</v>
       </c>
       <c r="D124">
-        <v>228.9412795734963</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E124">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2712,13 +2712,13 @@
         <v>57</v>
       </c>
       <c r="C125">
-        <v>435.800086489314</v>
+        <v>14.61295398389172</v>
       </c>
       <c r="D125">
-        <v>824.0025493028821</v>
+        <v>21.61461244230826</v>
       </c>
       <c r="E125">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2729,13 +2729,13 @@
         <v>58</v>
       </c>
       <c r="C126">
-        <v>129.8435349323045</v>
+        <v>5.234258159712804</v>
       </c>
       <c r="D126">
-        <v>768.5081258439747</v>
+        <v>25.17059980410062</v>
       </c>
       <c r="E126">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2746,13 +2746,13 @@
         <v>59</v>
       </c>
       <c r="C127">
-        <v>434.412592968021</v>
+        <v>17.5317038598698</v>
       </c>
       <c r="D127">
-        <v>-101.4632141638915</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E127">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2763,13 +2763,13 @@
         <v>60</v>
       </c>
       <c r="C128">
-        <v>432.1484663884452</v>
+        <v>17.14222352014043</v>
       </c>
       <c r="D128">
-        <v>142.7769704223736</v>
+        <v>0.4920475132616159</v>
       </c>
       <c r="E128">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2780,13 +2780,13 @@
         <v>61</v>
       </c>
       <c r="C129">
-        <v>181.025533179861</v>
+        <v>5.912765309819529</v>
       </c>
       <c r="D129">
-        <v>418.0103922251026</v>
+        <v>21.8279716840158</v>
       </c>
       <c r="E129">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2797,13 +2797,13 @@
         <v>62</v>
       </c>
       <c r="C130">
-        <v>503.1826626458898</v>
+        <v>15.62422843030344</v>
       </c>
       <c r="D130">
-        <v>824.0025493028821</v>
+        <v>0.4920475132616159</v>
       </c>
       <c r="E130">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2814,13 +2814,13 @@
         <v>63</v>
       </c>
       <c r="C131">
-        <v>48.71569018004206</v>
+        <v>1.156843212895816</v>
       </c>
       <c r="D131">
-        <v>750.8508092888678</v>
+        <v>21.61461244230826</v>
       </c>
       <c r="E131">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2831,13 +2831,13 @@
         <v>64</v>
       </c>
       <c r="C132">
-        <v>784.864713110567</v>
+        <v>23.78519494161703</v>
       </c>
       <c r="D132">
-        <v>142.7769704223736</v>
+        <v>1.254044805074264</v>
       </c>
       <c r="E132">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2848,13 +2848,13 @@
         <v>65</v>
       </c>
       <c r="C133">
-        <v>431.5835156856465</v>
+        <v>20.20074151845515</v>
       </c>
       <c r="D133">
-        <v>196.1167808492591</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E133">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2865,13 +2865,13 @@
         <v>66</v>
       </c>
       <c r="C134">
-        <v>935.8100626266498</v>
+        <v>30.89271526562509</v>
       </c>
       <c r="D134">
-        <v>768.5081258439747</v>
+        <v>21.61461244230826</v>
       </c>
       <c r="E134">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2882,13 +2882,13 @@
         <v>67</v>
       </c>
       <c r="C135">
-        <v>575.5812609228841</v>
+        <v>19.29802425435111</v>
       </c>
       <c r="D135">
-        <v>768.5081258439747</v>
+        <v>-5.553131001785397</v>
       </c>
       <c r="E135">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2899,13 +2899,13 @@
         <v>68</v>
       </c>
       <c r="C136">
-        <v>350.0486205158398</v>
+        <v>7.782504681554297</v>
       </c>
       <c r="D136">
-        <v>730.8483803787858</v>
+        <v>25.17059980410062</v>
       </c>
       <c r="E136">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2916,13 +2916,13 @@
         <v>69</v>
       </c>
       <c r="C137">
-        <v>513.3507121884413</v>
+        <v>17.03684152807915</v>
       </c>
       <c r="D137">
-        <v>70.04086529480251</v>
+        <v>21.61461244230826</v>
       </c>
       <c r="E137">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2933,13 +2933,13 @@
         <v>70</v>
       </c>
       <c r="C138">
-        <v>362.06906179494</v>
+        <v>16.37807584987861</v>
       </c>
       <c r="D138">
-        <v>768.5081258439747</v>
+        <v>25.17059980410062</v>
       </c>
       <c r="E138">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2950,13 +2950,13 @@
         <v>71</v>
       </c>
       <c r="C139">
-        <v>219.8684085251463</v>
+        <v>15.05628538615991</v>
       </c>
       <c r="D139">
-        <v>730.8483803787858</v>
+        <v>25.394119009699</v>
       </c>
       <c r="E139">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2967,13 +2967,13 @@
         <v>72</v>
       </c>
       <c r="C140">
-        <v>303.571267857835</v>
+        <v>14.18295524004023</v>
       </c>
       <c r="D140">
-        <v>-101.4632141638915</v>
+        <v>28.4421081769496</v>
       </c>
       <c r="E140">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2984,13 +2984,13 @@
         <v>73</v>
       </c>
       <c r="C141">
-        <v>256.9580294001493</v>
+        <v>16.50590875594717</v>
       </c>
       <c r="D141">
-        <v>213.1855201858624</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E141">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
   </sheetData>

--- a/adresso_False.xlsx
+++ b/adresso_False.xlsx
@@ -621,10 +621,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>21.74894897842811</v>
+        <v>21.10970942524702</v>
       </c>
       <c r="D2">
-        <v>-3.77513732088922</v>
+        <v>27.16195272670435</v>
       </c>
       <c r="E2">
         <v>13.86075949367088</v>
@@ -638,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>6.88474892716668</v>
+        <v>7.260469155662794</v>
       </c>
       <c r="D3">
-        <v>-13.68110211445366</v>
+        <v>5.399310072535078</v>
       </c>
       <c r="E3">
         <v>13.86075949367088</v>
@@ -655,10 +655,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>8.496141136153311</v>
+        <v>9.311889189710975</v>
       </c>
       <c r="D4">
-        <v>15.01688819873658</v>
+        <v>-5.695370496257093</v>
       </c>
       <c r="E4">
         <v>13.86075949367088</v>
@@ -672,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>11.72301999172652</v>
+        <v>6.613251838097637</v>
       </c>
       <c r="D5">
-        <v>-5.108632581561353</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E5">
         <v>13.86075949367088</v>
@@ -689,10 +689,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>10.73092572769902</v>
+        <v>11.64802276436977</v>
       </c>
       <c r="D6">
-        <v>26.84191386414303</v>
+        <v>24.72356139290387</v>
       </c>
       <c r="E6">
         <v>13.86075949367088</v>
@@ -706,10 +706,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>16.74167174908338</v>
+        <v>19.51219579593694</v>
       </c>
       <c r="D7">
-        <v>25.88179727645909</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E7">
         <v>13.86075949367088</v>
@@ -723,10 +723,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>23.71535661676596</v>
+        <v>25.76238996211563</v>
       </c>
       <c r="D8">
-        <v>25.6558874911217</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E8">
         <v>13.86075949367088</v>
@@ -740,10 +740,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>3.757674662072313</v>
+        <v>9.086451623583581</v>
       </c>
       <c r="D9">
-        <v>15.01688819873658</v>
+        <v>9.483615556650877</v>
       </c>
       <c r="E9">
         <v>13.86075949367088</v>
@@ -757,10 +757,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>13.90776986019797</v>
+        <v>10.44952331264777</v>
       </c>
       <c r="D10">
-        <v>25.88179727645909</v>
+        <v>15.42719443278954</v>
       </c>
       <c r="E10">
         <v>13.86075949367088</v>
@@ -774,10 +774,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>8.10553408320712</v>
+        <v>6.261961468473112</v>
       </c>
       <c r="D11">
-        <v>25.6558874911217</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E11">
         <v>13.86075949367088</v>
@@ -791,10 +791,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>25.62854818771257</v>
+        <v>22.30342626608084</v>
       </c>
       <c r="D12">
-        <v>25.6558874911217</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E12">
         <v>13.86075949367088</v>
@@ -808,10 +808,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>13.96685457218259</v>
+        <v>13.17593892684127</v>
       </c>
       <c r="D13">
-        <v>23.60596536491198</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E13">
         <v>13.86075949367088</v>
@@ -825,10 +825,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>14.84666259159523</v>
+        <v>18.82467032643827</v>
       </c>
       <c r="D14">
-        <v>-3.77513732088922</v>
+        <v>24.17492334279876</v>
       </c>
       <c r="E14">
         <v>13.86075949367088</v>
@@ -842,10 +842,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>8.356825157121516</v>
+        <v>8.313818061878971</v>
       </c>
       <c r="D15">
-        <v>0.8476462494408527</v>
+        <v>26.45075525434588</v>
       </c>
       <c r="E15">
         <v>13.86075949367088</v>
@@ -859,10 +859,10 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>10.3891693243574</v>
+        <v>5.365250203375055</v>
       </c>
       <c r="D16">
-        <v>-0.1480302118610083</v>
+        <v>27.16195272670435</v>
       </c>
       <c r="E16">
         <v>13.86075949367088</v>
@@ -876,10 +876,10 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>19.00871421548122</v>
+        <v>18.67001617791565</v>
       </c>
       <c r="D17">
-        <v>15.42719443278954</v>
+        <v>9.483615556650877</v>
       </c>
       <c r="E17">
         <v>13.86075949367088</v>
@@ -893,10 +893,10 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>29.51672583901409</v>
+        <v>27.76755303489228</v>
       </c>
       <c r="D18">
-        <v>25.6558874911217</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E18">
         <v>13.86075949367088</v>
@@ -910,10 +910,10 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>18.36490609525237</v>
+        <v>22.2773576744223</v>
       </c>
       <c r="D19">
-        <v>26.84191386414303</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E19">
         <v>13.86075949367088</v>
@@ -927,10 +927,10 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>3.454357206791773</v>
+        <v>0.6078840484268683</v>
       </c>
       <c r="D20">
-        <v>25.88179727645909</v>
+        <v>9.483615556650877</v>
       </c>
       <c r="E20">
         <v>13.86075949367088</v>
@@ -944,10 +944,10 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>9.049686344191342</v>
+        <v>11.25681067091762</v>
       </c>
       <c r="D21">
-        <v>25.6558874911217</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E21">
         <v>13.86075949367088</v>
@@ -961,10 +961,10 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>12.54969832315814</v>
+        <v>16.52805274568007</v>
       </c>
       <c r="D22">
-        <v>18.98318179458191</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E22">
         <v>13.86075949367088</v>
@@ -978,10 +978,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>12.17186936446734</v>
+        <v>11.72147452444796</v>
       </c>
       <c r="D23">
-        <v>-0.1480302118610083</v>
+        <v>-5.695370496257093</v>
       </c>
       <c r="E23">
         <v>13.86075949367088</v>
@@ -995,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>9.758869362811708</v>
+        <v>11.83979668630083</v>
       </c>
       <c r="D24">
-        <v>0.8476462494408527</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E24">
         <v>13.86075949367088</v>
@@ -1012,10 +1012,10 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>11.31967851434878</v>
+        <v>19.25474854584252</v>
       </c>
       <c r="D25">
-        <v>15.42719443278954</v>
+        <v>24.17492334279876</v>
       </c>
       <c r="E25">
         <v>13.86075949367088</v>
@@ -1029,10 +1029,10 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>6.208207504932364</v>
+        <v>-4.049610496432434</v>
       </c>
       <c r="D26">
-        <v>26.84191386414303</v>
+        <v>24.17492334279876</v>
       </c>
       <c r="E26">
         <v>13.86075949367088</v>
@@ -1046,10 +1046,10 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>11.81615576348764</v>
+        <v>11.2375576107482</v>
       </c>
       <c r="D27">
-        <v>-13.68110211445366</v>
+        <v>-5.695370496257093</v>
       </c>
       <c r="E27">
         <v>13.86075949367088</v>
@@ -1063,10 +1063,10 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>22.17181962574078</v>
+        <v>19.77771263124366</v>
       </c>
       <c r="D28">
-        <v>18.98318179458191</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E28">
         <v>13.86075949367088</v>
@@ -1080,10 +1080,10 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>13.97220526414957</v>
+        <v>-0.1353766311722315</v>
       </c>
       <c r="D29">
-        <v>15.01688819873658</v>
+        <v>24.72356139290387</v>
       </c>
       <c r="E29">
         <v>13.86075949367088</v>
@@ -1097,10 +1097,10 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>21.1052214733927</v>
+        <v>19.78202328617233</v>
       </c>
       <c r="D30">
-        <v>26.84191386414303</v>
+        <v>-0.7169881897477848</v>
       </c>
       <c r="E30">
         <v>13.86075949367088</v>
@@ -1114,10 +1114,10 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>17.79229482197492</v>
+        <v>18.1668335225175</v>
       </c>
       <c r="D31">
-        <v>25.6558874911217</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E31">
         <v>13.86075949367088</v>
@@ -1131,10 +1131,10 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>13.44232306335053</v>
+        <v>17.61484144629625</v>
       </c>
       <c r="D32">
-        <v>-13.68110211445366</v>
+        <v>5.399310072535078</v>
       </c>
       <c r="E32">
         <v>13.86075949367088</v>
@@ -1148,10 +1148,10 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>14.19438254442271</v>
+        <v>15.84445495235635</v>
       </c>
       <c r="D33">
-        <v>3.692436138874744</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E33">
         <v>13.86075949367088</v>
@@ -1165,10 +1165,10 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>21.52717785835192</v>
+        <v>15.00669235228635</v>
       </c>
       <c r="D34">
-        <v>11.16000959863871</v>
+        <v>27.96204988310763</v>
       </c>
       <c r="E34">
         <v>13.86075949367088</v>
@@ -1182,10 +1182,10 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>2.263660412514767</v>
+        <v>5.766805856266327</v>
       </c>
       <c r="D35">
-        <v>25.6558874911217</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E35">
         <v>13.86075949367088</v>
@@ -1199,10 +1199,10 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>-5.249088338932767</v>
+        <v>3.196695007700554</v>
       </c>
       <c r="D36">
-        <v>-3.77513732088922</v>
+        <v>27.96204988310763</v>
       </c>
       <c r="E36">
         <v>13.86075949367088</v>
@@ -1216,10 +1216,10 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>17.66838685446252</v>
+        <v>16.9929326819191</v>
       </c>
       <c r="D37">
-        <v>29.29554514377976</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E37">
         <v>13.86075949367088</v>
@@ -1233,10 +1233,10 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>18.68971977923614</v>
+        <v>18.60471617358297</v>
       </c>
       <c r="D38">
-        <v>15.01688819873658</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E38">
         <v>13.86075949367088</v>
@@ -1250,10 +1250,10 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>24.77211534334371</v>
+        <v>20.92062236317427</v>
       </c>
       <c r="D39">
-        <v>-3.77513732088922</v>
+        <v>27.96204988310763</v>
       </c>
       <c r="E39">
         <v>13.86075949367088</v>
@@ -1267,10 +1267,10 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>16.37630118460945</v>
+        <v>18.38428260482402</v>
       </c>
       <c r="D40">
-        <v>-13.68110211445366</v>
+        <v>5.399310072535078</v>
       </c>
       <c r="E40">
         <v>13.86075949367088</v>
@@ -1284,10 +1284,10 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>9.043968336000125</v>
+        <v>12.53405964636439</v>
       </c>
       <c r="D41">
-        <v>25.88179727645909</v>
+        <v>-0.7169881897477848</v>
       </c>
       <c r="E41">
         <v>13.86075949367088</v>
@@ -1301,10 +1301,10 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>-8.444467130364918</v>
+        <v>3.051667341614824</v>
       </c>
       <c r="D42">
-        <v>11.16000959863871</v>
+        <v>-19.243682344686</v>
       </c>
       <c r="E42">
         <v>13.86075949367088</v>
@@ -1318,10 +1318,10 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>10.98944998469823</v>
+        <v>12.56165061928224</v>
       </c>
       <c r="D43">
-        <v>-13.68110211445366</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E43">
         <v>13.86075949367088</v>
@@ -1335,10 +1335,10 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>12.49865023138316</v>
+        <v>7.837438612959052</v>
       </c>
       <c r="D44">
-        <v>25.6558874911217</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E44">
         <v>13.86075949367088</v>
@@ -1352,10 +1352,10 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>26.50660912891038</v>
+        <v>25.43694159156432</v>
       </c>
       <c r="D45">
-        <v>26.84191386414303</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E45">
         <v>13.86075949367088</v>
@@ -1369,10 +1369,10 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>19.71777876282827</v>
+        <v>24.40886314776776</v>
       </c>
       <c r="D46">
-        <v>26.84191386414303</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E46">
         <v>13.86075949367088</v>
@@ -1386,10 +1386,10 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>8.130234035396423</v>
+        <v>8.320508427516842</v>
       </c>
       <c r="D47">
-        <v>18.98318179458191</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E47">
         <v>13.86075949367088</v>
@@ -1403,10 +1403,10 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>23.57967946256989</v>
+        <v>21.59537052046002</v>
       </c>
       <c r="D48">
-        <v>25.6558874911217</v>
+        <v>26.45075525434588</v>
       </c>
       <c r="E48">
         <v>13.86075949367088</v>
@@ -1420,10 +1420,10 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>8.003251929130467</v>
+        <v>11.37522799443051</v>
       </c>
       <c r="D49">
-        <v>3.692436138874744</v>
+        <v>8.315219709204818</v>
       </c>
       <c r="E49">
         <v>13.86075949367088</v>
@@ -1437,10 +1437,10 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>12.10102796341123</v>
+        <v>8.694890336529568</v>
       </c>
       <c r="D50">
-        <v>-0.1480302118610083</v>
+        <v>-0.7169881897477848</v>
       </c>
       <c r="E50">
         <v>13.86075949367088</v>
@@ -1454,10 +1454,10 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>10.97147942111816</v>
+        <v>13.39865539785204</v>
       </c>
       <c r="D51">
-        <v>3.692436138874744</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E51">
         <v>13.86075949367088</v>
@@ -1471,10 +1471,10 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>23.28900123720851</v>
+        <v>27.67402821011516</v>
       </c>
       <c r="D52">
-        <v>25.6558874911217</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E52">
         <v>13.86075949367088</v>
@@ -1488,10 +1488,10 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>15.44476359993828</v>
+        <v>15.32137295751498</v>
       </c>
       <c r="D53">
-        <v>28.58434767142129</v>
+        <v>7.959620973025583</v>
       </c>
       <c r="E53">
         <v>13.86075949367088</v>
@@ -1505,10 +1505,10 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>9.83494339539558</v>
+        <v>12.50771478567323</v>
       </c>
       <c r="D54">
-        <v>15.01688819873658</v>
+        <v>-20.84387665749257</v>
       </c>
       <c r="E54">
         <v>13.86075949367088</v>
@@ -1522,10 +1522,10 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>11.10887884251262</v>
+        <v>7.236133158585693</v>
       </c>
       <c r="D55">
-        <v>3.692436138874744</v>
+        <v>9.483615556650877</v>
       </c>
       <c r="E55">
         <v>13.86075949367088</v>
@@ -1539,10 +1539,10 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>10.8609135119548</v>
+        <v>7.435525154569879</v>
       </c>
       <c r="D56">
-        <v>29.29554514377976</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E56">
         <v>13.86075949367088</v>
@@ -1556,10 +1556,10 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>11.48720712853293</v>
+        <v>12.62992726003063</v>
       </c>
       <c r="D57">
-        <v>15.42719443278954</v>
+        <v>-0.7169881897477848</v>
       </c>
       <c r="E57">
         <v>13.86075949367088</v>
@@ -1573,10 +1573,10 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>13.42050761593462</v>
+        <v>14.09452420545744</v>
       </c>
       <c r="D58">
-        <v>26.84191386414303</v>
+        <v>-0.7169881897477848</v>
       </c>
       <c r="E58">
         <v>13.86075949367088</v>
@@ -1590,10 +1590,10 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>4.050990610944965</v>
+        <v>1.581737916413386</v>
       </c>
       <c r="D59">
-        <v>26.84191386414303</v>
+        <v>-20.84387665749257</v>
       </c>
       <c r="E59">
         <v>13.86075949367088</v>
@@ -1607,10 +1607,10 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>20.85109348148711</v>
+        <v>18.19733373748275</v>
       </c>
       <c r="D60">
-        <v>26.84191386414303</v>
+        <v>9.483615556650877</v>
       </c>
       <c r="E60">
         <v>13.86075949367088</v>
@@ -1624,10 +1624,10 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>5.008099806235412</v>
+        <v>2.765856128489908</v>
       </c>
       <c r="D61">
-        <v>25.88179727645909</v>
+        <v>-5.695370496257093</v>
       </c>
       <c r="E61">
         <v>13.86075949367088</v>
@@ -1641,10 +1641,10 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>22.03567261376899</v>
+        <v>23.90767830143933</v>
       </c>
       <c r="D62">
-        <v>26.84191386414303</v>
+        <v>-0.7169881897477848</v>
       </c>
       <c r="E62">
         <v>13.86075949367088</v>
@@ -1658,10 +1658,10 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>18.02056924091808</v>
+        <v>13.17473837883697</v>
       </c>
       <c r="D63">
-        <v>23.60596536491198</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E63">
         <v>13.86075949367088</v>
@@ -1675,10 +1675,10 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>31.15617461567899</v>
+        <v>28.05190938442572</v>
       </c>
       <c r="D64">
-        <v>23.60596536491198</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E64">
         <v>13.86075949367088</v>
@@ -1692,10 +1692,10 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>19.83468692796034</v>
+        <v>17.16824304729226</v>
       </c>
       <c r="D65">
-        <v>18.98318179458191</v>
+        <v>-6.975525946502344</v>
       </c>
       <c r="E65">
         <v>13.86075949367088</v>
@@ -1709,10 +1709,10 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>5.07934215318241</v>
+        <v>7.488102421358171</v>
       </c>
       <c r="D66">
-        <v>25.6558874911217</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E66">
         <v>13.86075949367088</v>
@@ -1726,10 +1726,10 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>17.9758596128096</v>
+        <v>17.79841774047731</v>
       </c>
       <c r="D67">
-        <v>6.89282476448787</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E67">
         <v>13.86075949367088</v>
@@ -1743,10 +1743,10 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>15.65287554016425</v>
+        <v>15.40022661391576</v>
       </c>
       <c r="D68">
-        <v>25.6558874911217</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E68">
         <v>13.86075949367088</v>
@@ -1760,10 +1760,10 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>5.13425757400509</v>
+        <v>4.835877508617744</v>
       </c>
       <c r="D69">
-        <v>-0.1480302118610083</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E69">
         <v>13.86075949367088</v>
@@ -1777,10 +1777,10 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>9.198077153413374</v>
+        <v>11.06869596428412</v>
       </c>
       <c r="D70">
-        <v>15.42719443278954</v>
+        <v>7.959620973025583</v>
       </c>
       <c r="E70">
         <v>13.86075949367088</v>
@@ -1794,10 +1794,10 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>15.35195422906573</v>
+        <v>9.350659144040552</v>
       </c>
       <c r="D71">
-        <v>-13.68110211445366</v>
+        <v>5.399310072535078</v>
       </c>
       <c r="E71">
         <v>13.86075949367088</v>
@@ -1811,10 +1811,10 @@
         <v>4</v>
       </c>
       <c r="C72">
-        <v>13.74405713651741</v>
+        <v>14.8787455538989</v>
       </c>
       <c r="D72">
-        <v>22.28517005910339</v>
+        <v>0.6105804253213637</v>
       </c>
       <c r="E72">
         <v>13.86075949367088</v>
@@ -1828,10 +1828,10 @@
         <v>5</v>
       </c>
       <c r="C73">
-        <v>5.095243832874342</v>
+        <v>5.906756403643319</v>
       </c>
       <c r="D73">
-        <v>-13.68110211445366</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E73">
         <v>13.86075949367088</v>
@@ -1845,10 +1845,10 @@
         <v>6</v>
       </c>
       <c r="C74">
-        <v>12.61146190376242</v>
+        <v>12.1519575199053</v>
       </c>
       <c r="D74">
-        <v>1.254044805074264</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E74">
         <v>13.86075949367088</v>
@@ -1862,10 +1862,10 @@
         <v>7</v>
       </c>
       <c r="C75">
-        <v>8.542262086861943</v>
+        <v>10.70778666580508</v>
       </c>
       <c r="D75">
-        <v>2.2700411941578</v>
+        <v>-8.682399880162682</v>
       </c>
       <c r="E75">
         <v>13.86075949367088</v>
@@ -1879,10 +1879,10 @@
         <v>8</v>
       </c>
       <c r="C76">
-        <v>15.4256543726164</v>
+        <v>14.0210633717167</v>
       </c>
       <c r="D76">
-        <v>1.254044805074264</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E76">
         <v>13.86075949367088</v>
@@ -1896,10 +1896,10 @@
         <v>9</v>
       </c>
       <c r="C77">
-        <v>23.14466991325982</v>
+        <v>18.8092054322948</v>
       </c>
       <c r="D77">
-        <v>25.394119009699</v>
+        <v>26.69812828820969</v>
       </c>
       <c r="E77">
         <v>13.86075949367088</v>
@@ -1913,10 +1913,10 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>12.24662448146055</v>
+        <v>11.66236450639195</v>
       </c>
       <c r="D78">
-        <v>21.61461244230826</v>
+        <v>17.44225393780522</v>
       </c>
       <c r="E78">
         <v>13.86075949367088</v>
@@ -1930,10 +1930,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>6.418647971141232</v>
+        <v>5.768362096320888</v>
       </c>
       <c r="D79">
-        <v>17.56078684986496</v>
+        <v>0.6105804253213637</v>
       </c>
       <c r="E79">
         <v>13.86075949367088</v>
@@ -1947,10 +1947,10 @@
         <v>12</v>
       </c>
       <c r="C80">
-        <v>9.113944289171496</v>
+        <v>11.26355813316778</v>
       </c>
       <c r="D80">
-        <v>25.17059980410062</v>
+        <v>0.6105804253213637</v>
       </c>
       <c r="E80">
         <v>13.86075949367088</v>
@@ -1964,10 +1964,10 @@
         <v>13</v>
       </c>
       <c r="C81">
-        <v>5.177492566840055</v>
+        <v>8.411287487770782</v>
       </c>
       <c r="D81">
-        <v>0.4920475132616159</v>
+        <v>-3.988496562596765</v>
       </c>
       <c r="E81">
         <v>13.86075949367088</v>
@@ -1981,10 +1981,10 @@
         <v>14</v>
       </c>
       <c r="C82">
-        <v>24.88503893486043</v>
+        <v>23.60772158604923</v>
       </c>
       <c r="D82">
-        <v>25.17059980410062</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E82">
         <v>13.86075949367088</v>
@@ -1998,10 +1998,10 @@
         <v>15</v>
       </c>
       <c r="C83">
-        <v>9.279798984800875</v>
+        <v>6.749087089728403</v>
       </c>
       <c r="D83">
-        <v>22.28517005910339</v>
+        <v>5.351896907711179</v>
       </c>
       <c r="E83">
         <v>13.86075949367088</v>
@@ -2015,10 +2015,10 @@
         <v>16</v>
       </c>
       <c r="C84">
-        <v>17.03538515864814</v>
+        <v>15.49413589132922</v>
       </c>
       <c r="D84">
-        <v>-5.553131001785397</v>
+        <v>18.27198432222344</v>
       </c>
       <c r="E84">
         <v>13.86075949367088</v>
@@ -2032,10 +2032,10 @@
         <v>17</v>
       </c>
       <c r="C85">
-        <v>9.067671350920437</v>
+        <v>9.055647727985741</v>
       </c>
       <c r="D85">
-        <v>25.394119009699</v>
+        <v>26.80635399052511</v>
       </c>
       <c r="E85">
         <v>13.86075949367088</v>
@@ -2049,10 +2049,10 @@
         <v>18</v>
       </c>
       <c r="C86">
-        <v>4.437901677154134</v>
+        <v>12.1503006356799</v>
       </c>
       <c r="D86">
-        <v>23.96156410109122</v>
+        <v>27.6953508309732</v>
       </c>
       <c r="E86">
         <v>13.86075949367088</v>
@@ -2066,10 +2066,10 @@
         <v>19</v>
       </c>
       <c r="C87">
-        <v>17.65360143531674</v>
+        <v>20.85189302721031</v>
       </c>
       <c r="D87">
-        <v>0.4920475132616159</v>
+        <v>18.27198432222344</v>
       </c>
       <c r="E87">
         <v>13.86075949367088</v>
@@ -2083,10 +2083,10 @@
         <v>20</v>
       </c>
       <c r="C88">
-        <v>28.67787837598552</v>
+        <v>29.82577365115182</v>
       </c>
       <c r="D88">
-        <v>2.2700411941578</v>
+        <v>26.69812828820969</v>
       </c>
       <c r="E88">
         <v>13.86075949367088</v>
@@ -2100,10 +2100,10 @@
         <v>21</v>
       </c>
       <c r="C89">
-        <v>12.76865288632257</v>
+        <v>13.77856002258019</v>
       </c>
       <c r="D89">
-        <v>25.17059980410062</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E89">
         <v>13.86075949367088</v>
@@ -2117,10 +2117,10 @@
         <v>22</v>
       </c>
       <c r="C90">
-        <v>-1.263304501725642</v>
+        <v>-0.2903743741749704</v>
       </c>
       <c r="D90">
-        <v>21.8279716840158</v>
+        <v>0.6105804253213637</v>
       </c>
       <c r="E90">
         <v>13.86075949367088</v>
@@ -2134,10 +2134,10 @@
         <v>23</v>
       </c>
       <c r="C91">
-        <v>9.070320954590755</v>
+        <v>4.522881370561466</v>
       </c>
       <c r="D91">
-        <v>25.394119009699</v>
+        <v>27.51755146288358</v>
       </c>
       <c r="E91">
         <v>13.86075949367088</v>
@@ -2151,10 +2151,10 @@
         <v>24</v>
       </c>
       <c r="C92">
-        <v>23.54145349398012</v>
+        <v>25.92926449600475</v>
       </c>
       <c r="D92">
-        <v>21.61461244230826</v>
+        <v>26.69812828820969</v>
       </c>
       <c r="E92">
         <v>13.86075949367088</v>
@@ -2168,10 +2168,10 @@
         <v>25</v>
       </c>
       <c r="C93">
-        <v>16.13328931091137</v>
+        <v>14.69143490877498</v>
       </c>
       <c r="D93">
-        <v>25.394119009699</v>
+        <v>18.27198432222344</v>
       </c>
       <c r="E93">
         <v>13.86075949367088</v>
@@ -2185,10 +2185,10 @@
         <v>26</v>
       </c>
       <c r="C94">
-        <v>12.01635086172852</v>
+        <v>15.20687655430099</v>
       </c>
       <c r="D94">
-        <v>21.61461244230826</v>
+        <v>26.69812828820969</v>
       </c>
       <c r="E94">
         <v>13.86075949367088</v>
@@ -2202,10 +2202,10 @@
         <v>27</v>
       </c>
       <c r="C95">
-        <v>12.12757694350245</v>
+        <v>4.87902764253264</v>
       </c>
       <c r="D95">
-        <v>-1.428185662106255</v>
+        <v>5.351896907711179</v>
       </c>
       <c r="E95">
         <v>13.86075949367088</v>
@@ -2219,10 +2219,10 @@
         <v>28</v>
       </c>
       <c r="C96">
-        <v>0.7141856553194459</v>
+        <v>7.57572192289267</v>
       </c>
       <c r="D96">
-        <v>25.17059980410062</v>
+        <v>5.351896907711179</v>
       </c>
       <c r="E96">
         <v>13.86075949367088</v>
@@ -2236,10 +2236,10 @@
         <v>29</v>
       </c>
       <c r="C97">
-        <v>8.438892219621776</v>
+        <v>9.497708076932964</v>
       </c>
       <c r="D97">
-        <v>-13.68110211445366</v>
+        <v>27.51755146288358</v>
       </c>
       <c r="E97">
         <v>13.86075949367088</v>
@@ -2253,10 +2253,10 @@
         <v>30</v>
       </c>
       <c r="C98">
-        <v>24.47195280243703</v>
+        <v>21.91269672969516</v>
       </c>
       <c r="D98">
-        <v>25.394119009699</v>
+        <v>26.69812828820969</v>
       </c>
       <c r="E98">
         <v>13.86075949367088</v>
@@ -2270,10 +2270,10 @@
         <v>31</v>
       </c>
       <c r="C99">
-        <v>5.433657404332946</v>
+        <v>15.46456953114034</v>
       </c>
       <c r="D99">
-        <v>22.28517005910339</v>
+        <v>28.58434767142129</v>
       </c>
       <c r="E99">
         <v>13.86075949367088</v>
@@ -2287,10 +2287,10 @@
         <v>32</v>
       </c>
       <c r="C100">
-        <v>17.08888131938609</v>
+        <v>16.56359356170274</v>
       </c>
       <c r="D100">
-        <v>25.17059980410062</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E100">
         <v>13.86075949367088</v>
@@ -2304,10 +2304,10 @@
         <v>33</v>
       </c>
       <c r="C101">
-        <v>18.68614406566697</v>
+        <v>16.13160983908784</v>
       </c>
       <c r="D101">
-        <v>21.61461244230826</v>
+        <v>2.092241826068183</v>
       </c>
       <c r="E101">
         <v>13.86075949367088</v>
@@ -2321,10 +2321,10 @@
         <v>34</v>
       </c>
       <c r="C102">
-        <v>17.90788446263251</v>
+        <v>15.26712313575524</v>
       </c>
       <c r="D102">
-        <v>-13.68110211445366</v>
+        <v>3.692436138874747</v>
       </c>
       <c r="E102">
         <v>13.86075949367088</v>
@@ -2338,10 +2338,10 @@
         <v>35</v>
       </c>
       <c r="C103">
-        <v>9.663822585558648</v>
+        <v>13.08397678281619</v>
       </c>
       <c r="D103">
-        <v>25.394119009699</v>
+        <v>5.351896907711179</v>
       </c>
       <c r="E103">
         <v>13.86075949367088</v>
@@ -2355,10 +2355,10 @@
         <v>36</v>
       </c>
       <c r="C104">
-        <v>16.28077057205092</v>
+        <v>19.88584300682405</v>
       </c>
       <c r="D104">
-        <v>11.16000959863871</v>
+        <v>18.27198432222344</v>
       </c>
       <c r="E104">
         <v>13.86075949367088</v>
@@ -2372,10 +2372,10 @@
         <v>37</v>
       </c>
       <c r="C105">
-        <v>6.224967990047356</v>
+        <v>7.041968602108025</v>
       </c>
       <c r="D105">
-        <v>25.394119009699</v>
+        <v>-3.988496562596765</v>
       </c>
       <c r="E105">
         <v>13.86075949367088</v>
@@ -2389,10 +2389,10 @@
         <v>38</v>
       </c>
       <c r="C106">
-        <v>7.023154622976056</v>
+        <v>-3.22496733746986</v>
       </c>
       <c r="D106">
-        <v>25.394119009699</v>
+        <v>-2.70834111235151</v>
       </c>
       <c r="E106">
         <v>13.86075949367088</v>
@@ -2406,10 +2406,10 @@
         <v>39</v>
       </c>
       <c r="C107">
-        <v>20.70251839272297</v>
+        <v>20.67250360208305</v>
       </c>
       <c r="D107">
-        <v>23.96156410109122</v>
+        <v>5.351896907711179</v>
       </c>
       <c r="E107">
         <v>13.86075949367088</v>
@@ -2423,10 +2423,10 @@
         <v>40</v>
       </c>
       <c r="C108">
-        <v>22.00954908369738</v>
+        <v>22.20721684106111</v>
       </c>
       <c r="D108">
-        <v>21.61461244230826</v>
+        <v>26.69812828820969</v>
       </c>
       <c r="E108">
         <v>13.86075949367088</v>
@@ -2440,10 +2440,10 @@
         <v>41</v>
       </c>
       <c r="C109">
-        <v>20.86373193609403</v>
+        <v>28.23772194807546</v>
       </c>
       <c r="D109">
-        <v>22.28517005910339</v>
+        <v>0.6105804253213637</v>
       </c>
       <c r="E109">
         <v>13.86075949367088</v>
@@ -2457,10 +2457,10 @@
         <v>42</v>
       </c>
       <c r="C110">
-        <v>12.80998314989577</v>
+        <v>16.85999318916156</v>
       </c>
       <c r="D110">
-        <v>-13.68110211445366</v>
+        <v>3.692436138874747</v>
       </c>
       <c r="E110">
         <v>13.86075949367088</v>
@@ -2474,10 +2474,10 @@
         <v>43</v>
       </c>
       <c r="C111">
-        <v>3.356328392970866</v>
+        <v>2.950426894359918</v>
       </c>
       <c r="D111">
-        <v>25.394119009699</v>
+        <v>0.6105804253213637</v>
       </c>
       <c r="E111">
         <v>13.86075949367088</v>
@@ -2491,10 +2491,10 @@
         <v>44</v>
       </c>
       <c r="C112">
-        <v>-7.340587209398251</v>
+        <v>-3.730572520581848</v>
       </c>
       <c r="D112">
-        <v>11.16000959863871</v>
+        <v>-19.77708044895486</v>
       </c>
       <c r="E112">
         <v>13.86075949367088</v>
@@ -2508,10 +2508,10 @@
         <v>45</v>
       </c>
       <c r="C113">
-        <v>11.70582969687716</v>
+        <v>14.14214786120479</v>
       </c>
       <c r="D113">
-        <v>-13.68110211445366</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E113">
         <v>13.86075949367088</v>
@@ -2525,10 +2525,10 @@
         <v>46</v>
       </c>
       <c r="C114">
-        <v>10.33712533205137</v>
+        <v>15.25029049850009</v>
       </c>
       <c r="D114">
-        <v>-5.553131001785397</v>
+        <v>26.69812828820969</v>
       </c>
       <c r="E114">
         <v>13.86075949367088</v>
@@ -2542,10 +2542,10 @@
         <v>47</v>
       </c>
       <c r="C115">
-        <v>11.96704433899431</v>
+        <v>10.69125920875699</v>
       </c>
       <c r="D115">
-        <v>25.394119009699</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E115">
         <v>13.86075949367088</v>
@@ -2559,10 +2559,10 @@
         <v>48</v>
       </c>
       <c r="C116">
-        <v>24.62787445769962</v>
+        <v>21.67480790341848</v>
       </c>
       <c r="D116">
-        <v>1.558843721799326</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E116">
         <v>13.86075949367088</v>
@@ -2576,10 +2576,10 @@
         <v>49</v>
       </c>
       <c r="C117">
-        <v>4.796444751980727</v>
+        <v>5.280296596537906</v>
       </c>
       <c r="D117">
-        <v>0.4920475132616159</v>
+        <v>7.604022236846346</v>
       </c>
       <c r="E117">
         <v>13.86075949367088</v>
@@ -2593,10 +2593,10 @@
         <v>50</v>
       </c>
       <c r="C118">
-        <v>18.49061471670447</v>
+        <v>16.53052472853046</v>
       </c>
       <c r="D118">
-        <v>1.254044805074264</v>
+        <v>26.80635399052511</v>
       </c>
       <c r="E118">
         <v>13.86075949367088</v>
@@ -2610,10 +2610,10 @@
         <v>51</v>
       </c>
       <c r="C119">
-        <v>12.08801170715217</v>
+        <v>11.62745657565376</v>
       </c>
       <c r="D119">
-        <v>21.61461244230826</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E119">
         <v>13.86075949367088</v>
@@ -2627,10 +2627,10 @@
         <v>52</v>
       </c>
       <c r="C120">
-        <v>8.443584625185874</v>
+        <v>10.00905244462587</v>
       </c>
       <c r="D120">
-        <v>-5.553131001785397</v>
+        <v>-2.70834111235151</v>
       </c>
       <c r="E120">
         <v>13.86075949367088</v>
@@ -2644,10 +2644,10 @@
         <v>53</v>
       </c>
       <c r="C121">
-        <v>23.91682815950195</v>
+        <v>16.10599709387136</v>
       </c>
       <c r="D121">
-        <v>25.394119009699</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E121">
         <v>13.86075949367088</v>
@@ -2661,10 +2661,10 @@
         <v>54</v>
       </c>
       <c r="C122">
-        <v>27.06480753359593</v>
+        <v>24.36385306986689</v>
       </c>
       <c r="D122">
-        <v>-1.428185662106255</v>
+        <v>28.58434767142129</v>
       </c>
       <c r="E122">
         <v>13.86075949367088</v>
@@ -2678,10 +2678,10 @@
         <v>55</v>
       </c>
       <c r="C123">
-        <v>24.46873947650288</v>
+        <v>14.32910544888133</v>
       </c>
       <c r="D123">
-        <v>17.56078684986496</v>
+        <v>27.6953508309732</v>
       </c>
       <c r="E123">
         <v>13.86075949367088</v>
@@ -2695,10 +2695,10 @@
         <v>56</v>
       </c>
       <c r="C124">
-        <v>11.31780897216858</v>
+        <v>9.35997191484706</v>
       </c>
       <c r="D124">
-        <v>25.394119009699</v>
+        <v>0.6105804253213637</v>
       </c>
       <c r="E124">
         <v>13.86075949367088</v>
@@ -2712,10 +2712,10 @@
         <v>57</v>
       </c>
       <c r="C125">
-        <v>14.61295398389172</v>
+        <v>16.18967675205072</v>
       </c>
       <c r="D125">
-        <v>21.61461244230826</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E125">
         <v>13.86075949367088</v>
@@ -2729,10 +2729,10 @@
         <v>58</v>
       </c>
       <c r="C126">
-        <v>5.234258159712804</v>
+        <v>4.408387469174134</v>
       </c>
       <c r="D126">
-        <v>25.17059980410062</v>
+        <v>7.604022236846346</v>
       </c>
       <c r="E126">
         <v>13.86075949367088</v>
@@ -2746,10 +2746,10 @@
         <v>59</v>
       </c>
       <c r="C127">
-        <v>17.5317038598698</v>
+        <v>13.50876931863023</v>
       </c>
       <c r="D127">
-        <v>25.394119009699</v>
+        <v>27.51755146288358</v>
       </c>
       <c r="E127">
         <v>13.86075949367088</v>
@@ -2763,10 +2763,10 @@
         <v>60</v>
       </c>
       <c r="C128">
-        <v>17.14222352014043</v>
+        <v>18.61736757177741</v>
       </c>
       <c r="D128">
-        <v>0.4920475132616159</v>
+        <v>5.826028555950161</v>
       </c>
       <c r="E128">
         <v>13.86075949367088</v>
@@ -2780,10 +2780,10 @@
         <v>61</v>
       </c>
       <c r="C129">
-        <v>5.912765309819529</v>
+        <v>7.53325202111912</v>
       </c>
       <c r="D129">
-        <v>21.8279716840158</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E129">
         <v>13.86075949367088</v>
@@ -2797,10 +2797,10 @@
         <v>62</v>
       </c>
       <c r="C130">
-        <v>15.62422843030344</v>
+        <v>19.38568199412246</v>
       </c>
       <c r="D130">
-        <v>0.4920475132616159</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E130">
         <v>13.86075949367088</v>
@@ -2814,10 +2814,10 @@
         <v>63</v>
       </c>
       <c r="C131">
-        <v>1.156843212895816</v>
+        <v>0.01827176744445824</v>
       </c>
       <c r="D131">
-        <v>21.61461244230826</v>
+        <v>0.6105804253213637</v>
       </c>
       <c r="E131">
         <v>13.86075949367088</v>
@@ -2831,10 +2831,10 @@
         <v>64</v>
       </c>
       <c r="C132">
-        <v>23.78519494161703</v>
+        <v>23.24495830508842</v>
       </c>
       <c r="D132">
-        <v>1.254044805074264</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E132">
         <v>13.86075949367088</v>
@@ -2848,10 +2848,10 @@
         <v>65</v>
       </c>
       <c r="C133">
-        <v>20.20074151845515</v>
+        <v>14.92547504879638</v>
       </c>
       <c r="D133">
-        <v>25.394119009699</v>
+        <v>17.44225393780522</v>
       </c>
       <c r="E133">
         <v>13.86075949367088</v>
@@ -2865,10 +2865,10 @@
         <v>66</v>
       </c>
       <c r="C134">
-        <v>30.89271526562509</v>
+        <v>30.14793085277693</v>
       </c>
       <c r="D134">
-        <v>21.61461244230826</v>
+        <v>26.69812828820969</v>
       </c>
       <c r="E134">
         <v>13.86075949367088</v>
@@ -2882,10 +2882,10 @@
         <v>67</v>
       </c>
       <c r="C135">
-        <v>19.29802425435111</v>
+        <v>18.36983931302208</v>
       </c>
       <c r="D135">
-        <v>-5.553131001785397</v>
+        <v>26.69812828820969</v>
       </c>
       <c r="E135">
         <v>13.86075949367088</v>
@@ -2899,10 +2899,10 @@
         <v>68</v>
       </c>
       <c r="C136">
-        <v>7.782504681554297</v>
+        <v>8.46899476846184</v>
       </c>
       <c r="D136">
-        <v>25.17059980410062</v>
+        <v>7.604022236846346</v>
       </c>
       <c r="E136">
         <v>13.86075949367088</v>
@@ -2916,10 +2916,10 @@
         <v>69</v>
       </c>
       <c r="C137">
-        <v>17.03684152807915</v>
+        <v>19.24757536162099</v>
       </c>
       <c r="D137">
-        <v>21.61461244230826</v>
+        <v>26.69812828820969</v>
       </c>
       <c r="E137">
         <v>13.86075949367088</v>
@@ -2933,10 +2933,10 @@
         <v>70</v>
       </c>
       <c r="C138">
-        <v>16.37807584987861</v>
+        <v>18.09096785751618</v>
       </c>
       <c r="D138">
-        <v>25.17059980410062</v>
+        <v>2.092241826068183</v>
       </c>
       <c r="E138">
         <v>13.86075949367088</v>
@@ -2950,10 +2950,10 @@
         <v>71</v>
       </c>
       <c r="C139">
-        <v>15.05628538615991</v>
+        <v>10.31722547817941</v>
       </c>
       <c r="D139">
-        <v>25.394119009699</v>
+        <v>26.1415389620161</v>
       </c>
       <c r="E139">
         <v>13.86075949367088</v>
@@ -2967,10 +2967,10 @@
         <v>72</v>
       </c>
       <c r="C140">
-        <v>14.18295524004023</v>
+        <v>16.67828398515264</v>
       </c>
       <c r="D140">
-        <v>28.4421081769496</v>
+        <v>0.6105804253213637</v>
       </c>
       <c r="E140">
         <v>13.86075949367088</v>
@@ -2984,10 +2984,10 @@
         <v>73</v>
       </c>
       <c r="C141">
-        <v>16.50590875594717</v>
+        <v>6.11660669321334</v>
       </c>
       <c r="D141">
-        <v>-13.68110211445366</v>
+        <v>3.692436138874747</v>
       </c>
       <c r="E141">
         <v>13.86075949367088</v>

--- a/adresso_False.xlsx
+++ b/adresso_False.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>speaker</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,10 +621,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>21.10970942524702</v>
+        <v>9.529769293301314</v>
       </c>
       <c r="D2">
-        <v>27.16195272670435</v>
+        <v>19.69437926694038</v>
       </c>
       <c r="E2">
         <v>13.86075949367088</v>
@@ -638,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>7.260469155662794</v>
+        <v>6.394453131214716</v>
       </c>
       <c r="D3">
-        <v>5.399310072535078</v>
+        <v>2.358940878202605</v>
       </c>
       <c r="E3">
         <v>13.86075949367088</v>
@@ -655,10 +655,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>9.311889189710975</v>
+        <v>12.63718752517711</v>
       </c>
       <c r="D4">
-        <v>-5.695370496257093</v>
+        <v>-2.403542195626451</v>
       </c>
       <c r="E4">
         <v>13.86075949367088</v>
@@ -672,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>6.613251838097637</v>
+        <v>9.178844256480762</v>
       </c>
       <c r="D5">
-        <v>4.403633611233215</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E5">
         <v>13.86075949367088</v>
@@ -689,10 +689,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>11.64802276436977</v>
+        <v>11.40593512725335</v>
       </c>
       <c r="D6">
-        <v>24.72356139290387</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E6">
         <v>13.86075949367088</v>
@@ -706,10 +706,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>19.51219579593694</v>
+        <v>22.58713501213609</v>
       </c>
       <c r="D7">
-        <v>24.80611109951691</v>
+        <v>24.17492334279876</v>
       </c>
       <c r="E7">
         <v>13.86075949367088</v>
@@ -723,10 +723,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>25.76238996211563</v>
+        <v>16.286843959299</v>
       </c>
       <c r="D8">
-        <v>24.80611109951691</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E8">
         <v>13.86075949367088</v>
@@ -740,10 +740,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>9.086451623583581</v>
+        <v>9.844240956384812</v>
       </c>
       <c r="D9">
-        <v>9.483615556650877</v>
+        <v>-2.403542195626451</v>
       </c>
       <c r="E9">
         <v>13.86075949367088</v>
@@ -757,10 +757,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>10.44952331264777</v>
+        <v>9.846402676842555</v>
       </c>
       <c r="D10">
-        <v>15.42719443278954</v>
+        <v>24.17492334279876</v>
       </c>
       <c r="E10">
         <v>13.86075949367088</v>
@@ -774,10 +774,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>6.261961468473112</v>
+        <v>6.852959267259791</v>
       </c>
       <c r="D11">
-        <v>4.403633611233215</v>
+        <v>7.426222868756724</v>
       </c>
       <c r="E11">
         <v>13.86075949367088</v>
@@ -791,10 +791,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>22.30342626608084</v>
+        <v>23.88956555921126</v>
       </c>
       <c r="D12">
-        <v>4.403633611233215</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E12">
         <v>13.86075949367088</v>
@@ -808,10 +808,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>13.17593892684127</v>
+        <v>4.513741111297808</v>
       </c>
       <c r="D13">
-        <v>24.80611109951691</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E13">
         <v>13.86075949367088</v>
@@ -825,10 +825,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>18.82467032643827</v>
+        <v>16.84754535361262</v>
       </c>
       <c r="D14">
-        <v>24.17492334279876</v>
+        <v>19.69437926694038</v>
       </c>
       <c r="E14">
         <v>13.86075949367088</v>
@@ -842,10 +842,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>8.313818061878971</v>
+        <v>9.330718115683426</v>
       </c>
       <c r="D15">
-        <v>26.45075525434588</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E15">
         <v>13.86075949367088</v>
@@ -859,10 +859,10 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>5.365250203375055</v>
+        <v>7.198069554491783</v>
       </c>
       <c r="D16">
-        <v>27.16195272670435</v>
+        <v>27.58867121011943</v>
       </c>
       <c r="E16">
         <v>13.86075949367088</v>
@@ -876,10 +876,10 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>18.67001617791565</v>
+        <v>17.74300546997406</v>
       </c>
       <c r="D17">
-        <v>9.483615556650877</v>
+        <v>19.69437926694038</v>
       </c>
       <c r="E17">
         <v>13.86075949367088</v>
@@ -893,10 +893,10 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>27.76755303489228</v>
+        <v>31.82820255179605</v>
       </c>
       <c r="D18">
-        <v>24.80611109951691</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E18">
         <v>13.86075949367088</v>
@@ -910,10 +910,10 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>22.2773576744223</v>
+        <v>21.44463302049536</v>
       </c>
       <c r="D19">
-        <v>4.403633611233215</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E19">
         <v>13.86075949367088</v>
@@ -927,10 +927,10 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>0.6078840484268683</v>
+        <v>-0.2048958632951731</v>
       </c>
       <c r="D20">
-        <v>9.483615556650877</v>
+        <v>24.17492334279876</v>
       </c>
       <c r="E20">
         <v>13.86075949367088</v>
@@ -944,10 +944,10 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>11.25681067091762</v>
+        <v>7.67661291609229</v>
       </c>
       <c r="D21">
-        <v>24.80611109951691</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E21">
         <v>13.86075949367088</v>
@@ -961,10 +961,10 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>16.52805274568007</v>
+        <v>22.93843580887027</v>
       </c>
       <c r="D22">
-        <v>24.80611109951691</v>
+        <v>-0.5747486952760927</v>
       </c>
       <c r="E22">
         <v>13.86075949367088</v>
@@ -978,10 +978,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>11.72147452444796</v>
+        <v>15.87049408232408</v>
       </c>
       <c r="D23">
-        <v>-5.695370496257093</v>
+        <v>3.692436138874745</v>
       </c>
       <c r="E23">
         <v>13.86075949367088</v>
@@ -995,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>11.83979668630083</v>
+        <v>12.01208403502774</v>
       </c>
       <c r="D24">
-        <v>24.80611109951691</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E24">
         <v>13.86075949367088</v>
@@ -1012,10 +1012,10 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>19.25474854584252</v>
+        <v>6.376376868663026</v>
       </c>
       <c r="D25">
-        <v>24.17492334279876</v>
+        <v>-2.403542195626451</v>
       </c>
       <c r="E25">
         <v>13.86075949367088</v>
@@ -1029,10 +1029,10 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>-4.049610496432434</v>
+        <v>1.283730779024211</v>
       </c>
       <c r="D26">
-        <v>24.17492334279876</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E26">
         <v>13.86075949367088</v>
@@ -1046,10 +1046,10 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>11.2375576107482</v>
+        <v>9.954219435924378</v>
       </c>
       <c r="D27">
-        <v>-5.695370496257093</v>
+        <v>2.358940878202605</v>
       </c>
       <c r="E27">
         <v>13.86075949367088</v>
@@ -1063,10 +1063,10 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>19.77771263124366</v>
+        <v>22.55934591431466</v>
       </c>
       <c r="D28">
-        <v>24.80611109951691</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E28">
         <v>13.86075949367088</v>
@@ -1080,10 +1080,10 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>-0.1353766311722315</v>
+        <v>8.040139132726599</v>
       </c>
       <c r="D29">
-        <v>24.72356139290387</v>
+        <v>-2.403542195626451</v>
       </c>
       <c r="E29">
         <v>13.86075949367088</v>
@@ -1097,10 +1097,10 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>19.78202328617233</v>
+        <v>16.99626164180379</v>
       </c>
       <c r="D30">
-        <v>-0.7169881897477848</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E30">
         <v>13.86075949367088</v>
@@ -1114,10 +1114,10 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>18.1668335225175</v>
+        <v>14.51379475806022</v>
       </c>
       <c r="D31">
-        <v>24.80611109951691</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E31">
         <v>13.86075949367088</v>
@@ -1131,10 +1131,10 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>17.61484144629625</v>
+        <v>13.61922198743897</v>
       </c>
       <c r="D32">
-        <v>5.399310072535078</v>
+        <v>2.358940878202605</v>
       </c>
       <c r="E32">
         <v>13.86075949367088</v>
@@ -1148,10 +1148,10 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>15.84445495235635</v>
+        <v>10.07669509429534</v>
       </c>
       <c r="D33">
-        <v>24.80611109951691</v>
+        <v>3.692436138874744</v>
       </c>
       <c r="E33">
         <v>13.86075949367088</v>
@@ -1165,10 +1165,10 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>15.00669235228635</v>
+        <v>20.54229998542452</v>
       </c>
       <c r="D34">
-        <v>27.96204988310763</v>
+        <v>2.358940878202605</v>
       </c>
       <c r="E34">
         <v>13.86075949367088</v>
@@ -1182,10 +1182,10 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>5.766805856266327</v>
+        <v>5.175193254378533</v>
       </c>
       <c r="D35">
-        <v>4.403633611233215</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E35">
         <v>13.86075949367088</v>
@@ -1199,10 +1199,10 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>3.196695007700554</v>
+        <v>2.603201914942939</v>
       </c>
       <c r="D36">
-        <v>27.96204988310763</v>
+        <v>23.19956680927857</v>
       </c>
       <c r="E36">
         <v>13.86075949367088</v>
@@ -1216,10 +1216,10 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>16.9929326819191</v>
+        <v>21.15090157705933</v>
       </c>
       <c r="D37">
-        <v>24.80611109951691</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E37">
         <v>13.86075949367088</v>
@@ -1233,10 +1233,10 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>18.60471617358297</v>
+        <v>24.958103624254</v>
       </c>
       <c r="D38">
-        <v>24.80611109951691</v>
+        <v>-2.403542195626451</v>
       </c>
       <c r="E38">
         <v>13.86075949367088</v>
@@ -1250,10 +1250,10 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>20.92062236317427</v>
+        <v>24.18590371098209</v>
       </c>
       <c r="D39">
-        <v>27.96204988310763</v>
+        <v>3.15903803460589</v>
       </c>
       <c r="E39">
         <v>13.86075949367088</v>
@@ -1267,10 +1267,10 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>18.38428260482402</v>
+        <v>16.01043023876069</v>
       </c>
       <c r="D40">
-        <v>5.399310072535078</v>
+        <v>2.358940878202605</v>
       </c>
       <c r="E40">
         <v>13.86075949367088</v>
@@ -1284,10 +1284,10 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>12.53405964636439</v>
+        <v>8.08267748210716</v>
       </c>
       <c r="D41">
-        <v>-0.7169881897477848</v>
+        <v>24.17492334279876</v>
       </c>
       <c r="E41">
         <v>13.86075949367088</v>
@@ -1301,10 +1301,10 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>3.051667341614824</v>
+        <v>-2.49616937180876</v>
       </c>
       <c r="D42">
-        <v>-19.243682344686</v>
+        <v>2.358940878202605</v>
       </c>
       <c r="E42">
         <v>13.86075949367088</v>
@@ -1318,10 +1318,10 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>12.56165061928224</v>
+        <v>8.58125682065849</v>
       </c>
       <c r="D43">
-        <v>24.80611109951691</v>
+        <v>2.358940878202605</v>
       </c>
       <c r="E43">
         <v>13.86075949367088</v>
@@ -1335,10 +1335,10 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>7.837438612959052</v>
+        <v>10.05927620027634</v>
       </c>
       <c r="D44">
-        <v>4.403633611233215</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E44">
         <v>13.86075949367088</v>
@@ -1352,10 +1352,10 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>25.43694159156432</v>
+        <v>11.76347021959375</v>
       </c>
       <c r="D45">
-        <v>24.80611109951691</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E45">
         <v>13.86075949367088</v>
@@ -1369,10 +1369,10 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>24.40886314776776</v>
+        <v>28.92004097272702</v>
       </c>
       <c r="D46">
-        <v>24.80611109951691</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E46">
         <v>13.86075949367088</v>
@@ -1386,10 +1386,10 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>8.320508427516842</v>
+        <v>6.014209576836725</v>
       </c>
       <c r="D47">
-        <v>24.80611109951691</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E47">
         <v>13.86075949367088</v>
@@ -1403,10 +1403,10 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>21.59537052046002</v>
+        <v>16.28675709594951</v>
       </c>
       <c r="D48">
-        <v>26.45075525434588</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E48">
         <v>13.86075949367088</v>
@@ -1420,10 +1420,10 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>11.37522799443051</v>
+        <v>16.55357931481683</v>
       </c>
       <c r="D49">
-        <v>8.315219709204818</v>
+        <v>3.692436138874744</v>
       </c>
       <c r="E49">
         <v>13.86075949367088</v>
@@ -1437,10 +1437,10 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>8.694890336529568</v>
+        <v>6.886779123955792</v>
       </c>
       <c r="D50">
-        <v>-0.7169881897477848</v>
+        <v>3.15903803460589</v>
       </c>
       <c r="E50">
         <v>13.86075949367088</v>
@@ -1454,10 +1454,10 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>13.39865539785204</v>
+        <v>15.62783042449222</v>
       </c>
       <c r="D51">
-        <v>24.80611109951691</v>
+        <v>3.692436138874744</v>
       </c>
       <c r="E51">
         <v>13.86075949367088</v>
@@ -1471,10 +1471,10 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>27.67402821011516</v>
+        <v>26.55297965343862</v>
       </c>
       <c r="D52">
-        <v>24.80611109951691</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E52">
         <v>13.86075949367088</v>
@@ -1488,10 +1488,10 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>15.32137295751498</v>
+        <v>13.06983441533142</v>
       </c>
       <c r="D53">
-        <v>7.959620973025583</v>
+        <v>19.69437926694038</v>
       </c>
       <c r="E53">
         <v>13.86075949367088</v>
@@ -1505,10 +1505,10 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>12.50771478567323</v>
+        <v>9.722815344617258</v>
       </c>
       <c r="D54">
-        <v>-20.84387665749257</v>
+        <v>-2.403542195626451</v>
       </c>
       <c r="E54">
         <v>13.86075949367088</v>
@@ -1522,10 +1522,10 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>7.236133158585693</v>
+        <v>13.39590479689851</v>
       </c>
       <c r="D55">
-        <v>9.483615556650877</v>
+        <v>3.692436138874744</v>
       </c>
       <c r="E55">
         <v>13.86075949367088</v>
@@ -1539,10 +1539,10 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>7.435525154569879</v>
+        <v>5.546522102302384</v>
       </c>
       <c r="D56">
-        <v>24.80611109951691</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E56">
         <v>13.86075949367088</v>
@@ -1556,10 +1556,10 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>12.62992726003063</v>
+        <v>18.14061913107515</v>
       </c>
       <c r="D57">
-        <v>-0.7169881897477848</v>
+        <v>3.15903803460589</v>
       </c>
       <c r="E57">
         <v>13.86075949367088</v>
@@ -1573,10 +1573,10 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>14.09452420545744</v>
+        <v>18.55802922469862</v>
       </c>
       <c r="D58">
-        <v>-0.7169881897477848</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E58">
         <v>13.86075949367088</v>
@@ -1590,10 +1590,10 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>1.581737916413386</v>
+        <v>8.576201209070049</v>
       </c>
       <c r="D59">
-        <v>-20.84387665749257</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E59">
         <v>13.86075949367088</v>
@@ -1607,10 +1607,10 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>18.19733373748275</v>
+        <v>16.94073606135505</v>
       </c>
       <c r="D60">
-        <v>9.483615556650877</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E60">
         <v>13.86075949367088</v>
@@ -1624,10 +1624,10 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>2.765856128489908</v>
+        <v>1.348214636643752</v>
       </c>
       <c r="D61">
-        <v>-5.695370496257093</v>
+        <v>24.17492334279876</v>
       </c>
       <c r="E61">
         <v>13.86075949367088</v>
@@ -1641,10 +1641,10 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>23.90767830143933</v>
+        <v>23.77716804010569</v>
       </c>
       <c r="D62">
-        <v>-0.7169881897477848</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E62">
         <v>13.86075949367088</v>
@@ -1658,10 +1658,10 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>13.17473837883697</v>
+        <v>11.40625949419701</v>
       </c>
       <c r="D63">
-        <v>4.403633611233215</v>
+        <v>1.558843721799326</v>
       </c>
       <c r="E63">
         <v>13.86075949367088</v>
@@ -1675,10 +1675,10 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>28.05190938442572</v>
+        <v>30.92440842758813</v>
       </c>
       <c r="D64">
-        <v>24.80611109951691</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E64">
         <v>13.86075949367088</v>
@@ -1692,10 +1692,10 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>17.16824304729226</v>
+        <v>18.50640788616213</v>
       </c>
       <c r="D65">
-        <v>-6.975525946502344</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E65">
         <v>13.86075949367088</v>
@@ -1709,10 +1709,10 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>7.488102421358171</v>
+        <v>11.80770729930686</v>
       </c>
       <c r="D66">
-        <v>4.403633611233215</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E66">
         <v>13.86075949367088</v>
@@ -1726,10 +1726,10 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>17.79841774047731</v>
+        <v>20.05188157924727</v>
       </c>
       <c r="D67">
-        <v>4.403633611233215</v>
+        <v>24.98391046760653</v>
       </c>
       <c r="E67">
         <v>13.86075949367088</v>
@@ -1743,10 +1743,10 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>15.40022661391576</v>
+        <v>18.29339004284511</v>
       </c>
       <c r="D68">
-        <v>24.80611109951691</v>
+        <v>-0.5747486952760927</v>
       </c>
       <c r="E68">
         <v>13.86075949367088</v>
@@ -1760,10 +1760,10 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>4.835877508617744</v>
+        <v>10.78936773358364</v>
       </c>
       <c r="D69">
-        <v>24.80611109951691</v>
+        <v>-2.403542195626451</v>
       </c>
       <c r="E69">
         <v>13.86075949367088</v>
@@ -1777,10 +1777,10 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>11.06869596428412</v>
+        <v>14.8511204965487</v>
       </c>
       <c r="D70">
-        <v>7.959620973025583</v>
+        <v>27.58867121011943</v>
       </c>
       <c r="E70">
         <v>13.86075949367088</v>
@@ -1794,1202 +1794,12 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>9.350659144040552</v>
+        <v>7.792504101356136</v>
       </c>
       <c r="D71">
-        <v>5.399310072535078</v>
+        <v>2.358940878202605</v>
       </c>
       <c r="E71">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72">
-        <v>14.8787455538989</v>
-      </c>
-      <c r="D72">
-        <v>0.6105804253213637</v>
-      </c>
-      <c r="E72">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73">
-        <v>5.906756403643319</v>
-      </c>
-      <c r="D73">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E73">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74">
-        <v>12.1519575199053</v>
-      </c>
-      <c r="D74">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E74">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75">
-        <v>10.70778666580508</v>
-      </c>
-      <c r="D75">
-        <v>-8.682399880162682</v>
-      </c>
-      <c r="E75">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76">
-        <v>14.0210633717167</v>
-      </c>
-      <c r="D76">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E76">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77">
-        <v>18.8092054322948</v>
-      </c>
-      <c r="D77">
-        <v>26.69812828820969</v>
-      </c>
-      <c r="E77">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78">
-        <v>11.66236450639195</v>
-      </c>
-      <c r="D78">
-        <v>17.44225393780522</v>
-      </c>
-      <c r="E78">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79">
-        <v>5.768362096320888</v>
-      </c>
-      <c r="D79">
-        <v>0.6105804253213637</v>
-      </c>
-      <c r="E79">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80">
-        <v>11.26355813316778</v>
-      </c>
-      <c r="D80">
-        <v>0.6105804253213637</v>
-      </c>
-      <c r="E80">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81">
-        <v>8.411287487770782</v>
-      </c>
-      <c r="D81">
-        <v>-3.988496562596765</v>
-      </c>
-      <c r="E81">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82">
-        <v>23.60772158604923</v>
-      </c>
-      <c r="D82">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E82">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83">
-        <v>6.749087089728403</v>
-      </c>
-      <c r="D83">
-        <v>5.351896907711179</v>
-      </c>
-      <c r="E83">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84">
-        <v>15.49413589132922</v>
-      </c>
-      <c r="D84">
-        <v>18.27198432222344</v>
-      </c>
-      <c r="E84">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85">
-        <v>9.055647727985741</v>
-      </c>
-      <c r="D85">
-        <v>26.80635399052511</v>
-      </c>
-      <c r="E85">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86">
-        <v>12.1503006356799</v>
-      </c>
-      <c r="D86">
-        <v>27.6953508309732</v>
-      </c>
-      <c r="E86">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87">
-        <v>20.85189302721031</v>
-      </c>
-      <c r="D87">
-        <v>18.27198432222344</v>
-      </c>
-      <c r="E87">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88">
-        <v>29.82577365115182</v>
-      </c>
-      <c r="D88">
-        <v>26.69812828820969</v>
-      </c>
-      <c r="E88">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89">
-        <v>13.77856002258019</v>
-      </c>
-      <c r="D89">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E89">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90">
-        <v>-0.2903743741749704</v>
-      </c>
-      <c r="D90">
-        <v>0.6105804253213637</v>
-      </c>
-      <c r="E90">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91">
-        <v>4.522881370561466</v>
-      </c>
-      <c r="D91">
-        <v>27.51755146288358</v>
-      </c>
-      <c r="E91">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92">
-        <v>25.92926449600475</v>
-      </c>
-      <c r="D92">
-        <v>26.69812828820969</v>
-      </c>
-      <c r="E92">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93">
-        <v>14.69143490877498</v>
-      </c>
-      <c r="D93">
-        <v>18.27198432222344</v>
-      </c>
-      <c r="E93">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>26</v>
-      </c>
-      <c r="C94">
-        <v>15.20687655430099</v>
-      </c>
-      <c r="D94">
-        <v>26.69812828820969</v>
-      </c>
-      <c r="E94">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95">
-        <v>4.87902764253264</v>
-      </c>
-      <c r="D95">
-        <v>5.351896907711179</v>
-      </c>
-      <c r="E95">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>28</v>
-      </c>
-      <c r="C96">
-        <v>7.57572192289267</v>
-      </c>
-      <c r="D96">
-        <v>5.351896907711179</v>
-      </c>
-      <c r="E96">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97">
-        <v>9.497708076932964</v>
-      </c>
-      <c r="D97">
-        <v>27.51755146288358</v>
-      </c>
-      <c r="E97">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>30</v>
-      </c>
-      <c r="C98">
-        <v>21.91269672969516</v>
-      </c>
-      <c r="D98">
-        <v>26.69812828820969</v>
-      </c>
-      <c r="E98">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>31</v>
-      </c>
-      <c r="C99">
-        <v>15.46456953114034</v>
-      </c>
-      <c r="D99">
-        <v>28.58434767142129</v>
-      </c>
-      <c r="E99">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>32</v>
-      </c>
-      <c r="C100">
-        <v>16.56359356170274</v>
-      </c>
-      <c r="D100">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E100">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>33</v>
-      </c>
-      <c r="C101">
-        <v>16.13160983908784</v>
-      </c>
-      <c r="D101">
-        <v>2.092241826068183</v>
-      </c>
-      <c r="E101">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>34</v>
-      </c>
-      <c r="C102">
-        <v>15.26712313575524</v>
-      </c>
-      <c r="D102">
-        <v>3.692436138874747</v>
-      </c>
-      <c r="E102">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C103">
-        <v>13.08397678281619</v>
-      </c>
-      <c r="D103">
-        <v>5.351896907711179</v>
-      </c>
-      <c r="E103">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>36</v>
-      </c>
-      <c r="C104">
-        <v>19.88584300682405</v>
-      </c>
-      <c r="D104">
-        <v>18.27198432222344</v>
-      </c>
-      <c r="E104">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>37</v>
-      </c>
-      <c r="C105">
-        <v>7.041968602108025</v>
-      </c>
-      <c r="D105">
-        <v>-3.988496562596765</v>
-      </c>
-      <c r="E105">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>38</v>
-      </c>
-      <c r="C106">
-        <v>-3.22496733746986</v>
-      </c>
-      <c r="D106">
-        <v>-2.70834111235151</v>
-      </c>
-      <c r="E106">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>39</v>
-      </c>
-      <c r="C107">
-        <v>20.67250360208305</v>
-      </c>
-      <c r="D107">
-        <v>5.351896907711179</v>
-      </c>
-      <c r="E107">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>40</v>
-      </c>
-      <c r="C108">
-        <v>22.20721684106111</v>
-      </c>
-      <c r="D108">
-        <v>26.69812828820969</v>
-      </c>
-      <c r="E108">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>41</v>
-      </c>
-      <c r="C109">
-        <v>28.23772194807546</v>
-      </c>
-      <c r="D109">
-        <v>0.6105804253213637</v>
-      </c>
-      <c r="E109">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>42</v>
-      </c>
-      <c r="C110">
-        <v>16.85999318916156</v>
-      </c>
-      <c r="D110">
-        <v>3.692436138874747</v>
-      </c>
-      <c r="E110">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>43</v>
-      </c>
-      <c r="C111">
-        <v>2.950426894359918</v>
-      </c>
-      <c r="D111">
-        <v>0.6105804253213637</v>
-      </c>
-      <c r="E111">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>44</v>
-      </c>
-      <c r="C112">
-        <v>-3.730572520581848</v>
-      </c>
-      <c r="D112">
-        <v>-19.77708044895486</v>
-      </c>
-      <c r="E112">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>45</v>
-      </c>
-      <c r="C113">
-        <v>14.14214786120479</v>
-      </c>
-      <c r="D113">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E113">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>46</v>
-      </c>
-      <c r="C114">
-        <v>15.25029049850009</v>
-      </c>
-      <c r="D114">
-        <v>26.69812828820969</v>
-      </c>
-      <c r="E114">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>47</v>
-      </c>
-      <c r="C115">
-        <v>10.69125920875699</v>
-      </c>
-      <c r="D115">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E115">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>48</v>
-      </c>
-      <c r="C116">
-        <v>21.67480790341848</v>
-      </c>
-      <c r="D116">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E116">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>49</v>
-      </c>
-      <c r="C117">
-        <v>5.280296596537906</v>
-      </c>
-      <c r="D117">
-        <v>7.604022236846346</v>
-      </c>
-      <c r="E117">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>50</v>
-      </c>
-      <c r="C118">
-        <v>16.53052472853046</v>
-      </c>
-      <c r="D118">
-        <v>26.80635399052511</v>
-      </c>
-      <c r="E118">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>51</v>
-      </c>
-      <c r="C119">
-        <v>11.62745657565376</v>
-      </c>
-      <c r="D119">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E119">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>52</v>
-      </c>
-      <c r="C120">
-        <v>10.00905244462587</v>
-      </c>
-      <c r="D120">
-        <v>-2.70834111235151</v>
-      </c>
-      <c r="E120">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>53</v>
-      </c>
-      <c r="C121">
-        <v>16.10599709387136</v>
-      </c>
-      <c r="D121">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E121">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>54</v>
-      </c>
-      <c r="C122">
-        <v>24.36385306986689</v>
-      </c>
-      <c r="D122">
-        <v>28.58434767142129</v>
-      </c>
-      <c r="E122">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>55</v>
-      </c>
-      <c r="C123">
-        <v>14.32910544888133</v>
-      </c>
-      <c r="D123">
-        <v>27.6953508309732</v>
-      </c>
-      <c r="E123">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>56</v>
-      </c>
-      <c r="C124">
-        <v>9.35997191484706</v>
-      </c>
-      <c r="D124">
-        <v>0.6105804253213637</v>
-      </c>
-      <c r="E124">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
-        <v>57</v>
-      </c>
-      <c r="C125">
-        <v>16.18967675205072</v>
-      </c>
-      <c r="D125">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E125">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>58</v>
-      </c>
-      <c r="C126">
-        <v>4.408387469174134</v>
-      </c>
-      <c r="D126">
-        <v>7.604022236846346</v>
-      </c>
-      <c r="E126">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>59</v>
-      </c>
-      <c r="C127">
-        <v>13.50876931863023</v>
-      </c>
-      <c r="D127">
-        <v>27.51755146288358</v>
-      </c>
-      <c r="E127">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>60</v>
-      </c>
-      <c r="C128">
-        <v>18.61736757177741</v>
-      </c>
-      <c r="D128">
-        <v>5.826028555950161</v>
-      </c>
-      <c r="E128">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>61</v>
-      </c>
-      <c r="C129">
-        <v>7.53325202111912</v>
-      </c>
-      <c r="D129">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E129">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>62</v>
-      </c>
-      <c r="C130">
-        <v>19.38568199412246</v>
-      </c>
-      <c r="D130">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E130">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>63</v>
-      </c>
-      <c r="C131">
-        <v>0.01827176744445824</v>
-      </c>
-      <c r="D131">
-        <v>0.6105804253213637</v>
-      </c>
-      <c r="E131">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>64</v>
-      </c>
-      <c r="C132">
-        <v>23.24495830508842</v>
-      </c>
-      <c r="D132">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E132">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
-        <v>65</v>
-      </c>
-      <c r="C133">
-        <v>14.92547504879638</v>
-      </c>
-      <c r="D133">
-        <v>17.44225393780522</v>
-      </c>
-      <c r="E133">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>66</v>
-      </c>
-      <c r="C134">
-        <v>30.14793085277693</v>
-      </c>
-      <c r="D134">
-        <v>26.69812828820969</v>
-      </c>
-      <c r="E134">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
-        <v>67</v>
-      </c>
-      <c r="C135">
-        <v>18.36983931302208</v>
-      </c>
-      <c r="D135">
-        <v>26.69812828820969</v>
-      </c>
-      <c r="E135">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
-        <v>68</v>
-      </c>
-      <c r="C136">
-        <v>8.46899476846184</v>
-      </c>
-      <c r="D136">
-        <v>7.604022236846346</v>
-      </c>
-      <c r="E136">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>69</v>
-      </c>
-      <c r="C137">
-        <v>19.24757536162099</v>
-      </c>
-      <c r="D137">
-        <v>26.69812828820969</v>
-      </c>
-      <c r="E137">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>70</v>
-      </c>
-      <c r="C138">
-        <v>18.09096785751618</v>
-      </c>
-      <c r="D138">
-        <v>2.092241826068183</v>
-      </c>
-      <c r="E138">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>71</v>
-      </c>
-      <c r="C139">
-        <v>10.31722547817941</v>
-      </c>
-      <c r="D139">
-        <v>26.1415389620161</v>
-      </c>
-      <c r="E139">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>72</v>
-      </c>
-      <c r="C140">
-        <v>16.67828398515264</v>
-      </c>
-      <c r="D140">
-        <v>0.6105804253213637</v>
-      </c>
-      <c r="E140">
-        <v>13.86075949367088</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
-        <v>73</v>
-      </c>
-      <c r="C141">
-        <v>6.11660669321334</v>
-      </c>
-      <c r="D141">
-        <v>3.692436138874747</v>
-      </c>
-      <c r="E141">
         <v>13.86075949367088</v>
       </c>
     </row>
